--- a/hotels_list2.xlsx
+++ b/hotels_list2.xlsx
@@ -513,12 +513,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/smart-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=116517101_89188931_1_2_0&amp;highlighted_blocks=116517101_89188931_1_2_0&amp;matching_block_id=116517101_89188931_1_2_0&amp;sr_pri_blocks=116517101_89188931_1_2_0__7000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/smart-montevideo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683551&amp;all_sr_blocks=116517101_89188931_1_2_0&amp;highlighted_blocks=116517101_89188931_1_2_0&amp;matching_block_id=116517101_89188931_1_2_0&amp;sr_pri_blocks=116517101_89188931_1_2_0__7000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['WiFi gratis', 'Traslado aeropuerto', 'Gimnasio', 'Habitaciones sin humo', 'Restaurante', 'Recepción 24 horas', 'Servicio de habitaciones', 'Ascensor', 'Bar', 'Buen desayuno', 'WiFi gratis', 'Traslado aeropuerto', 'Gimnasio', 'Habitaciones sin humo', 'Restaurante', 'Recepción 24 horas', 'Servicio de habitaciones', 'Ascensor', 'Bar', 'Buen desayuno', 'Papel higiénico', 'Toallas', 'Bidet', 'Baño privado', 'WC', 'Artículos de aseo gratis', 'Secador de pelo', 'Ducha', 'Ropa de cama', 'Vistas a la ciudad', 'Vistas', 'Terraza / solárium', 'Terraza', 'Hervidor eléctrico', 'Zona de cocina', 'Alquiler de bicicletas', 'Happy hour', 'Escritorio', 'TV de pantalla plana', 'Canales por cable', 'Teléfono', 'Cafetería en el alojamiento', 'Vino / champán', 'Menú para niños', 'Bar', 'Minibar', 'Restaurante', 'Proporciona factura', 'Servicio de conserjería', 'Guardaequipaje', 'Información turística', 'Recepción 24 horas', 'Servicio de limpieza diario', 'Plancha para pantalones', 'Servicio de planchado', 'Servicio de limpieza en seco', 'Servicio de lavandería', 'Fax / fotocopiadora', 'Salas de reuniones / banquetes', 'Extintores', 'Cámaras de seguridad fuera del alojamiento', 'Cámaras de seguridad en las zonas comunitarias', 'Detectores de humo', 'Alarma de seguridad', 'Tarjeta de acceso', 'Caja fuerte', 'Servicio de traslado', 'Aire acondicionado', 'Prohibido fumar en todo el alojamiento', 'Servicio de despertador', 'Suelo de madera o parquet', 'Calefacción', 'Alquiler de coches', 'Caja fuerte para ordenador portátil', 'Ascensor', 'Traslado aeropuerto', 'Habitaciones sin humo', 'Servicio de habitaciones', 'Toda la unidad accesible en silla de ruedas', 'Gimnasio', 'Gimnasio', 'Inglés', 'Español', 'Portugués']</t>
+          <t>['Recepción 24 horas', 'Cámaras de seguridad fuera del alojamiento', 'Teléfono', 'Prohibido fumar en todo el alojamiento', 'Canales por cable', 'Calefacción', 'Salas de reuniones / banquetes', 'WC', 'Alquiler de bicicletas', 'Buen desayuno', 'Información turística', 'Ducha', 'Vino / champán', 'Menú para niños', 'Ascensor', 'Gimnasio', 'Bar', 'Ropa de cama', 'Happy hour', 'Guardaequipaje', 'Alquiler de coches', 'Toda la unidad accesible en silla de ruedas', 'Traslado aeropuerto', 'Tarjeta de acceso', 'Hervidor eléctrico', 'Zona de cocina', 'Proporciona factura', 'Extintores', 'Baño privado', 'Vistas', 'Caja fuerte para ordenador portátil', 'Vistas a la ciudad', 'Restaurante', 'Portugués', 'TV de pantalla plana', 'Habitaciones sin humo', 'Terraza', 'Papel higiénico', 'Plancha para pantalones', 'WiFi gratis', 'Servicio de conserjería', 'Toallas', 'Bidet', 'Servicio de limpieza diario', 'Cámaras de seguridad en las zonas comunitarias', 'Español', 'Servicio de traslado', 'Servicio de despertador', 'Minibar', 'Caja fuerte', 'Escritorio', 'Suelo de madera o parquet', 'Terraza / solárium', 'Inglés', 'Alarma de seguridad', 'Detectores de humo', 'Servicio de limpieza en seco', 'Servicio de planchado', 'Fax / fotocopiadora', 'Servicio de lavandería', 'Artículos de aseo gratis', 'Cafetería en el alojamiento', 'Aire acondicionado', 'Secador de pelo', 'Servicio de habitaciones']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -533,17 +533,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Villa Pancha del Lunarejo</t>
+          <t>Villa Serrana - Mesón de las cañas</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>US$48</t>
+          <t>US$58</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -553,325 +553,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>384</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square600/386181208.webp?k=3bf16ca86c756ad0c10c96e431849af746cd780b6c3e042e7613106962188513&amp;o=</t>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/418438956.webp?k=5d0ac22d21699cffa334ed4d6e2d11e5f9d9e6b93370441865cd703f8e770bcf&amp;o=</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/uy/villa-pancha-del-lunarejo-paraje-la-palma.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=885408303_360289244_0_42_0&amp;highlighted_blocks=885408303_360289244_0_42_0&amp;matching_block_id=885408303_360289244_0_42_0&amp;sr_pri_blocks=885408303_360289244_0_42_0__4800&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+          <t>https://www.booking.com/hotel/uy/villa-serrana-meson-de-las-canas-villa-serrana.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683551&amp;all_sr_blocks=942557906_375818417_1_1_0&amp;highlighted_blocks=942557906_375818417_1_1_0&amp;matching_block_id=942557906_375818417_1_1_0&amp;sr_pri_blocks=942557906_375818417_1_1_0__5780&amp;from=searchresults#hotelTmpl</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['WiFi gratis', 'Parking gratis', 'Habitaciones sin humo', 'Desayuno', 'WiFi gratis', 'Parking gratis', 'Habitaciones sin humo', 'Desayuno', 'Papel higiénico', 'Toallas / sábanas (por un suplemento)', 'Artículos de aseo gratis', 'Vistas a la montaña', 'Vistas al jardín', 'Vistas', 'Zona de pícnic', 'Mobiliario exterior', 'Terraza', 'Jardín', 'Proporciona factura', 'Aire acondicionado', 'Entrada privada', 'Habitaciones sin humo', 'Inglés', 'Español', 'Portugués']</t>
+          <t>['Calefacción', 'Enchufe cerca de la cama', 'WC', 'Habitaciones familiares', 'Ducha', 'Jardín', 'Bar', 'Ropa de cama', 'Bañera o ducha', 'Baño privado', 'Restaurante', 'Piscina al aire libre', 'Habitaciones sin humo', 'Papel higiénico', 'WiFi gratis', 'Toallas', 'Español', 'Suelo de madera o parquet', 'Desayuno fabuloso', 'Aseo adicional', 'Artículos de aseo gratis', 'Parking gratis', 'Aire acondicionado', 'Secador de pelo', 'Servicio de habitaciones']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>Villa Pancha del Lunarejo está en Sierra de Lunarejo y tiene vistas al jardín, wifi gratis y parking privado gratis.
-Algunos alojamientos incluyen una terraza con vistas a la montaña, zona de cocina totalmente equipada y baño privado con ducha.
-Se puede disfrutar de un momento de relax en el jardín del alojamiento.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Hotel Vista La Floresta</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>US$120</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8,7</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Fabuloso</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square600/397803735.webp?k=7cee15c7ad59cb693f102db5aacf978c8acbb767eb3d32dd423f6b43ff0f1b82&amp;o=</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/vista-la-floresta.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=802081301_341479146_1_9_0&amp;highlighted_blocks=802081301_341479146_1_9_0&amp;matching_block_id=802081301_341479146_1_9_0&amp;sr_pri_blocks=802081301_341479146_1_9_0__11979&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>['Piscina interior', 'Gimnasio', 'Adaptado personas de movilidad reducida', 'Servicio de habitaciones', 'Situado frente a la playa', 'Habitaciones familiares', 'Habitaciones sin humo', 'Bar', 'Desayuno fantástico', 'Piscina interior', 'Gimnasio', 'Adaptado personas de movilidad reducida', 'Servicio de habitaciones', 'Situado frente a la playa', 'Habitaciones familiares', 'Habitaciones sin humo', 'Bar', 'Desayuno fantástico', 'Papel higiénico', 'Toallas', 'Toallas / sábanas (por un suplemento)', 'Bañera o ducha', 'Baño privado', 'WC', 'Artículos de aseo gratis', 'Secador de pelo', 'Ducha', 'Ropa de cama', 'Armario', 'Vistas al río', 'Vistas a la ciudad', 'Vistas a un lugar de interés', 'Vistas al jardín', 'Vistas al mar', 'Vistas', 'Mobiliario exterior', 'Situado frente a la playa', 'Terraza / solárium', 'Barbacoa', 'Terraza', 'Jardín', 'Enchufe cerca de la cama', 'Cama plegable', 'Playa', 'Club infantil', 'Sala de juegos', 'TV de pantalla plana', 'Canales por cable', 'TV', 'Cafetería en el alojamiento', 'Bar', 'Minibar', 'Proporciona factura', 'Registro de entrada / salida privado', 'Servicio de conserjería', 'Información turística', 'Recepción 24 horas', 'Cochecitos de bebé', 'Zona de juegos interior', 'Juegos de mesa / puzles', 'Libros, DVD o música para niños', 'Juegos de mesa / puzles', 'Servicio de limpieza diario', 'Fax / fotocopiadora', 'Extintores', 'Seguridad 24 horas', 'Caja fuerte', 'Servicio de traslado', 'Aire acondicionado', 'Prohibido fumar en todo el alojamiento', 'Suelo de baldosa / mármol', 'Calefacción', 'Ascensor', 'Habitaciones familiares', 'Adaptado personas de movilidad reducida', 'Habitaciones sin humo', 'Servicio de habitaciones', 'WC elevado', 'Adaptado para sillas de ruedas', 'Acceso a pisos superiores en ascensor', 'Horario de apertura', 'Abierta todo el año', 'Para todas las edades', 'Piscina climatizada', 'Toallas de playa/piscina', 'Tumbonas/sillas de playa', 'Gimnasio', 'Masaje corporal completo', 'Masaje de manos', 'Masaje de cabeza', 'Masaje de pies', 'Masaje de cuello', 'Masaje de espalda', 'Sombrillas', 'Tumbonas/sillas de playa', 'Masajes', 'Solárium', 'Gimnasio', 'Español']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Hotel Vista La Floresta ofrece alojamiento de 3 estrellas en La Floresta, frente a la playa, y tiene centro de fitness, jardín y terraza. Este alojamiento, que tiene servicio de habitaciones, también ofrece barbacoa. El hotel dispone de piscina cubierta y club infantil.
-En el hotel, todas las habitaciones están equipadas con armario. Todas las habitaciones del alojamiento tienen baño privado con ducha y artículos de aseo gratuitos, además de TV de pantalla plana y aire acondicionado. Algunas habitaciones también incluyen balcón. En Hotel Vista La Floresta, las habitaciones incluyen ropa de cama y toallas.
-El personal de recepción puede aconsejar qué visitar por la zona.
-Playa La Floresta está a pocos pasos del alojamiento, y Playa Costa Azul está a menos de 1 km. El aeropuerto (Aeropuerto internacional de Carrasco) está a 35 km.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cabañas Maria Maria Conchillas</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>US$110</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>8,5</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Muy bien</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square600/469823478.webp?k=810d2437ea2c7893918aced0b4b00b853e63527132618db5e1ee8e27d4d64b86&amp;o=</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/cabanas-maria-maria.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=117679003_118341043_0_0_0&amp;highlighted_blocks=117679003_118341043_0_0_0&amp;matching_block_id=117679003_118341043_0_0_0&amp;sr_pri_blocks=117679003_118341043_0_0_0__11000&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>['2 piscinas', 'Restaurante', 'WiFi gratis', 'Habitaciones familiares', 'Habitaciones sin humo', 'Bar', '2 piscinas', 'Restaurante', 'WiFi gratis', 'Habitaciones familiares', 'Habitaciones sin humo', 'Bar', 'Papel higiénico', 'Toallas', 'Bidet', 'Toallas / sábanas (por un suplemento)', 'Bañera o ducha', 'Baño privado', 'WC', 'Artículos de aseo gratis', 'Ducha', 'Ropa de cama', 'Armario', 'Vistas a la piscina', 'Vistas al jardín', 'Vistas al lago', 'Vistas', 'Zona de pícnic', 'Terraza / solárium', 'Barbacoa', 'Jardín', 'Mesa de comedor', 'Cafetera', 'Productos de limpieza', 'Fogones', 'Horno', 'Utensilios de cocina', 'Hervidor eléctrico', 'Cocina', 'Nevera', 'Zona de cocina', 'Enchufe cerca de la cama', 'Perchero', 'Eventos deportivos en directo (emisión)', 'Música / espectáculos en directo', 'Tour o clase sobre cultura local', 'Playa', 'Discoteca / DJ', 'Equitación', 'Senderismo', 'Karaoke', 'Casino', 'Sala de juegos', 'Zona de comedor', 'Zona de estar', 'TV de pantalla plana', 'Canales por cable', 'Canales vía satélite', 'TV', 'Cafetería en el alojamiento', 'Vino / champán', 'Menú para niños', 'Menús para dietas especiales (bajo petición)', 'Snack-bar', 'Desayuno en la habitación', 'Bar', 'Restaurante', 'Tetera / cafetera', 'Proporciona factura', 'Registro de entrada / salida privado', 'Información turística', 'Servicio de lavandería', 'Fax / fotocopiadora', 'Centro de negocios', 'Salas de reuniones / banquetes', 'Extintores', 'Llave de acceso', 'Servicio de traslado', 'Supermercado pequeño en el alojamiento', 'Zona TV / salón de uso compartido', 'Aire acondicionado', 'Mosquitera', 'Servicio de despertador', 'Suelo de madera o parquet', 'Suelo de baldosa / mármol', 'Calefacción', 'Entrada privada', 'Habitaciones comunicadas disponibles', 'Almuerzos para llevar', 'Habitaciones familiares', 'Habitaciones sin humo', 'Toda la unidad accesible en silla de ruedas', 'Toda la unidad en la planta baja', 'De temporada', 'Para todas las edades', 'Zona poco profunda', 'De temporada', 'Para todas las edades', 'Zona poco profunda', 'Solárium', 'Inglés', 'Español']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Cabañas Maria Maria Conchillas, que cuenta con piscina de temporada al aire libre, jardín y salón de uso común, ofrece alojamiento en Conchillas con wifi gratis y vistas a la piscina. Este agroturismo dispone de restaurante y bar, además de casino.
-Este agroturismo con aire acondicionado consta de 2 dormitorios, una sala de estar, una cocina totalmente equipada con nevera y cafetera, y 1 baño con bidet y ducha. Hay toallas y ropa de cama en el agroturismo.
-En el agroturismo, la clientela puede practicar senderismo en los alrededores o disfrutar de la terraza solárium.
-El aeropuerto más cercano (Aeroparque Jorge Newbery) está a 115 km del alojamiento.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Estancia Hosteria El Ceibo</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>US$67</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>9,0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Fantástico</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square600/4548794.webp?k=f911ae8141c2c4d03d0e566d75bf452f93a80fd2c7cbbee7820c41447edd1799&amp;o=</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/estancia-hosteria-el-ceibo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=30783202_89160237_1_41_0&amp;highlighted_blocks=30783202_89160237_1_41_0&amp;matching_block_id=30783202_89160237_1_41_0&amp;sr_pri_blocks=30783202_89160237_1_41_0__6650&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['Traslado aeropuerto', 'WiFi gratis', 'Parking gratis', 'Servicio de habitaciones', 'Adaptado personas de movilidad reducida', 'Restaurante', 'Habitaciones familiares', 'Habitaciones sin humo', 'Bar', 'Desayuno excepcional', 'Traslado aeropuerto', 'WiFi gratis', 'Parking gratis', 'Servicio de habitaciones', 'Adaptado personas de movilidad reducida', 'Restaurante', 'Habitaciones familiares', 'Habitaciones sin humo', 'Bar', 'Desayuno excepcional', 'Papel higiénico', 'Aseo adicional', 'Bañera o ducha', 'Baño privado', 'WC', 'Artículos de aseo gratis', 'Albornoz', 'Secador de pelo', 'Ducha', 'Armario', 'Vistas', 'Barbacoa', 'Jardín', 'Enchufe cerca de la cama', 'Perchero', 'Alquiler de bicicletas', 'Equitación', 'Ciclismo', 'Senderismo', 'Piragüismo', 'Billar', 'Zona de juegos para niños', 'Sala de juegos', 'Pesca', 'Fruta', 'Vino / champán', 'Menú para niños', 'Menús para dietas especiales (bajo petición)', 'Bar', 'Restaurante', 'Proporciona factura', 'Servicio de limpieza diario', 'Servicio de planchado', 'Servicio de lavandería', 'Centro de negocios', 'Salas de reuniones / banquetes', 'Servicio de traslado', 'Zona TV / salón de uso compartido', 'Mantas eléctricas', 'Zona de fumadores', 'Aire acondicionado', 'Calefacción', 'Entrada privada', 'Habitaciones comunicadas disponibles', 'Ventilador', 'Habitaciones familiares', 'Adaptado personas de movilidad reducida', 'Traslado aeropuerto', 'Habitaciones sin humo', 'Servicio de habitaciones', 'Inglés']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Esta hacienda tradicional de inspiración gaucha presenta un estilo auténtico de la Pampa y ofrece una chimenea, así como actividades de equitación, de observación de aves y de contacto con animales de granja. La conexión WiFi es gratuita.
-La Estancia hostería El Ceibo alberga un gran recinto al aire libre y zonas de estar ajardinadas junto a la fuente. En la hostería también hay galerías españolas a la sombra con suelo de baldosa roja y se puede practicar pesca y piragüismo.
-Las habitaciones presentan una decoración sencilla y rústica y tienen vistas a la hacienda de los alrededores. Algunas habitaciones cuentan con baño privado, muebles y camas de hierro de estilo colonial.
-Por las mañanas se sirve un desayuno completo con leche y zumos naturales. El restaurante elabora platos caseros típicos de la zona. Además, hay un salón común con TV por cable y una zona de barbacoa compartida.
-La ciudad de Montevideo se encuentra a 1 hora en coche de El Ceibo y la histórica localidad de Colonia queda a 2 horas en coche. Se facilita aparcamiento privado gratuito.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Pocitos Plaza Hotel</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>US$110</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8,2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Muy bien</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.251</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square600/134813691.webp?k=8e68e181ffc65d43ceab6157171e8d5c60a23a748ed5a7827109398bb520881f&amp;o=</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/pocitos-plaza.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=24621202_89152397_0_33_0&amp;highlighted_blocks=24621202_89152397_0_33_0&amp;matching_block_id=24621202_89152397_0_33_0&amp;sr_pri_blocks=24621202_89152397_0_33_0__11016&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['Parking', 'WiFi gratis', 'Traslado aeropuerto', 'Habitaciones familiares', 'Gimnasio', 'Habitaciones sin humo', 'Restaurante', 'Recepción 24 horas', 'Bar', 'Buen desayuno', 'Parking', 'WiFi gratis', 'Traslado aeropuerto', 'Habitaciones familiares', 'Gimnasio', 'Habitaciones sin humo', 'Restaurante', 'Recepción 24 horas', 'Bar', 'Buen desayuno', 'Papel higiénico', 'Toallas', 'Bañera o ducha', 'Baño privado', 'WC', 'Artículos de aseo gratis', 'Secador de pelo', 'Ducha', 'Ropa de cama', 'Armario', 'Reloj despertador', 'Vistas', 'Mobiliario exterior', 'Terraza / solárium', 'Barbacoa', 'Terraza', 'Jardín', 'Enchufe cerca de la cama', 'Perchero', 'Alquiler de bicicletas', 'Música / espectáculos en directo', 'Tour o clase sobre cultura local', 'Happy hour', 'Tours en bici', 'Playa', 'Club infantil', 'Ciclismo', 'Zona de juegos para niños', 'Sala de juegos', 'Escritorio', 'TV de pantalla plana', 'Canales por cable', 'Vídeo', 'Radio', 'Teléfono', 'TV', 'Cafetería en el alojamiento', 'Fruta', 'Vino / champán', 'Menús para dietas especiales (bajo petición)', 'Snack-bar', 'Desayuno en la habitación', 'Bar', 'Minibar', 'Restaurante', 'Parking en un garaje', 'Estación de carga de vehículos eléctricos', 'Parking adaptado para personas de movilidad reducida', 'Proporciona factura', 'Registro de entrada / salida privado', 'Servicio de conserjería', 'Guardaequipaje', 'Información turística', 'Cambio de moneda', 'Registro de entrada y salida exprés', 'Recepción 24 horas', 'Barandillas protectoras para bebés', 'Equipamiento de juegos para exterior', 'Zona de juegos interior', 'Juegos de mesa / puzles', 'Servicio de limpieza diario', 'Plancha para pantalones', 'Servicio de planchado', 'Servicio de limpieza en seco', 'Servicio de lavandería', 'Fax / fotocopiadora', 'Centro de negocios', 'Salas de reuniones / banquetes', 'Extintores', 'Cámaras de seguridad en las zonas comunitarias', 'Detectores de humo', 'Alarma de seguridad', 'Tarjeta de acceso', 'Llave de acceso', 'Seguridad 24 horas', 'Caja fuerte', 'Servicio de traslado', 'Servicio de entrega de comestibles', 'Zona TV / salón de uso compartido', 'Máquina expendedora (bebidas)', 'Hipoalergénico', 'Zona de fumadores', 'Aire acondicionado', 'Habitaciones hipoalergénicas', 'Servicio de despertador', 'Suelo de madera o parquet', 'Calefacción', 'Alquiler de coches', 'Caja fuerte para ordenador portátil', 'Ascensor', 'Habitaciones familiares', 'Adaptado personas de movilidad reducida', 'Traslado aeropuerto', 'Habitaciones sin humo', 'Servicio de despertador / alarma', 'Servicio de habitaciones', 'Apoyo visual: braille', 'Adaptado para sillas de ruedas', 'Toda la unidad accesible en silla de ruedas', 'Acceso a pisos superiores en ascensor', 'Taquillas en el gimnasio / spa', 'Gimnasio', 'Masaje corporal completo', 'Masaje de manos', 'Masaje de cabeza', 'Masaje de pies', 'Masaje de cuello', 'Masaje de espalda', 'Paquetes de spa / bienestar', 'Baño de vapor', 'Sombrillas', 'Tumbonas/sillas de playa', 'Baños públicos', 'Bañera de hidromasaje / jacuzzi', 'Masajes', 'Solárium', 'Gimnasio', 'Sauna', 'Inglés', 'Español', 'Italiano', 'Portugués']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>El Pocitos Plaza ofrece alojamiento en la exclusiva zona de Pocitos, a 5 minutos del centro de Montevideo y a solo 400 metros de la playa. Se ofrece WiFi gratuita y aparcamiento privado, por un suplemento.
-Las habitaciones del Pocitos Hotel tienen aire acondicionado, camas cómodas y baño privado con secador de pelo. Algunas habitaciones disponen de balcón y zona de estar con TV por cable y escritorio. 
-En el establecimiento hay una sauna, un solárium, una terraza y un bar, perfecto para tomar algo y charlar con el resto de huéspedes. El hotel sirve una merienda gratuita todos los días. Se ofrecen sombrillas, sillas y toallas para la playa. 
-La rambla de Montevideo está a solo 250 metros y alberga tiendas y sitios para comer. La playa de Pocitos está a 400 metros.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Hotel Hispano</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>US$49</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>7,6</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Bien</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.974</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square600/329846657.webp?k=1c709ad9e96e034170e48af8d83262d34f246c3a8cd4e2b675ed0cdb1ac95ca3&amp;o=</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/hispano.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=31207401_89160692_0_0_0&amp;highlighted_blocks=31207401_89160692_0_0_0&amp;matching_block_id=31207401_89160692_0_0_0&amp;sr_pri_blocks=31207401_89160692_0_0_0__4875&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>['WiFi gratis', 'Habitaciones familiares', 'Habitaciones sin humo', 'Recepción 24 horas', 'Servicio de habitaciones', 'Ascensor', 'Aire acondicionado', 'Servicio de limpieza diario', 'Terraza', 'WiFi gratis', 'Habitaciones familiares', 'Habitaciones sin humo', 'Recepción 24 horas', 'Servicio de habitaciones', 'Ascensor', 'Aire acondicionado', 'Servicio de limpieza diario', 'Terraza', 'Bidet', 'Baño privado', 'WC', 'Artículos de aseo gratis', 'Secador de pelo', 'Ducha', 'Armario', 'Terraza', 'Escritorio', 'TV de pantalla plana', 'Canales por cable', 'Teléfono', 'Servicio de limpieza diario', 'Servicio de conserjería', 'Guardaequipaje', 'Servicio de despertador', 'Fax / fotocopiadora', 'Información turística', 'Cambio de moneda', 'Recepción 24 horas', 'Servicio de habitaciones', 'Caja fuerte', 'Aire acondicionado', 'Prohibido fumar en todo el alojamiento', 'Habitaciones hipoalergénicas', 'Suelo de madera o parquet', 'Calefacción', 'Habitaciones insonorizadas', 'Ascensor', 'Habitaciones familiares', 'Habitaciones sin humo', 'Acceso a pisos superiores en ascensor', 'Inglés', 'Español']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>A solo 3 manzanas del palacio Estévez, el edificio principal del gobierno, el Hispano ofrece habitaciones bien decoradas, con aire acondicionado y WiFi gratuita en Montevideo. Además, se facilita un servicio de alquiler de coches.
-Las habitaciones del Hotel Hispano tienen suelo de madera con cortinas de techo a suelo. También tienen colchas a juego en tonos azul oscuro y ocre.
-Las habitaciones incluyen escritorio y televisión por cable. Todas las habitaciones disponen de baño privado.
-El Hispano está a 15 minutos en coche del Río de la Plata y ofrece servicio de alquiler de bicicletas. El mostrador de información turística puede ayudar a los huéspedes con consejos e información para disfrutar de la ciudad.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Villa Serrana - Mesón de las cañas</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>US$58</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>8,6</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Fabuloso</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>384</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square600/418438956.webp?k=5d0ac22d21699cffa334ed4d6e2d11e5f9d9e6b93370441865cd703f8e770bcf&amp;o=</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/villa-serrana-meson-de-las-canas-villa-serrana.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=942557906_375818417_1_1_0&amp;highlighted_blocks=942557906_375818417_1_1_0&amp;matching_block_id=942557906_375818417_1_1_0&amp;sr_pri_blocks=942557906_375818417_1_1_0__5780&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>['Piscina al aire libre', 'WiFi gratis', 'Parking gratis', 'Restaurante', 'Servicio de habitaciones', 'Habitaciones familiares', 'Habitaciones sin humo', 'Bar', 'Desayuno fabuloso', 'Piscina al aire libre', 'WiFi gratis', 'Parking gratis', 'Restaurante', 'Servicio de habitaciones', 'Habitaciones familiares', 'Habitaciones sin humo', 'Bar', 'Desayuno fabuloso', 'Papel higiénico', 'Toallas', 'Aseo adicional', 'Bañera o ducha', 'Baño privado', 'WC', 'Artículos de aseo gratis', 'Secador de pelo', 'Ducha', 'Ropa de cama', 'Jardín', 'Enchufe cerca de la cama', 'Bar', 'Restaurante', 'Servicio de habitaciones', 'Aire acondicionado', 'Suelo de madera o parquet', 'Calefacción', 'Habitaciones familiares', 'Habitaciones sin humo', 'Español']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>Villa Serrana - Mesón de las cañas se encuentra en Villa Serrana, a 26 km de Estadio Juan Antonio Lavalleja, y ofrece alojamiento con jardín, parking privado gratis, restaurante y bar. La posada u hostería dispone de habitaciones familiares.
 Las habitaciones de este alojamiento tienen baño privado con ducha y artículos de aseo gratuitos, además de wifi gratis. Algunas de las habitaciones también disponen de vistas a la montaña. En la posada u hostería, todas las habitaciones tienen ropa de cama y toallas.
@@ -879,99 +579,48 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Club Hotel Casapueblo</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>US$460</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>8,7</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Arapey Oasis Termal Hotel</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>US$101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8,9</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Fabuloso</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>666</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square600/22050644.webp?k=aaa7cf61310df2e2c06f33d48fb8faa2566612bb2e2f53ed5757f2e2bd0e36f5&amp;o=</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/club-casapueblo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=33647901_89164290_0_1_0&amp;highlighted_blocks=33647901_89164290_0_1_0&amp;matching_block_id=33647901_89164290_0_1_0&amp;sr_pri_blocks=33647901_89164290_0_1_0__45990&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>['2 piscinas', 'Parking privado', 'WiFi gratis', 'Habitaciones familiares', 'Spa y centro de bienestar', 'Gimnasio', 'Traslado aeropuerto', 'Servicio de habitaciones', 'Bar', 'Buen desayuno', '2 piscinas', 'Parking privado', 'WiFi gratis', 'Habitaciones familiares', 'Spa y centro de bienestar', 'Gimnasio', 'Traslado aeropuerto', 'Servicio de habitaciones', 'Bar', 'Buen desayuno', 'Papel higiénico', 'Toallas', 'Bidet', 'Artículos de aseo gratis', 'Secador de pelo', 'Ducha', 'Ropa de cama', 'Mobiliario exterior', 'Terraza / solárium', 'Terraza', 'Jardín', 'Enchufe cerca de la cama', 'Alquiler de bicicletas', 'Sala de juegos', 'Canales por cable', 'Teléfono', 'Cafetería en el alojamiento', 'Fruta', 'Vino / champán', 'Menú para niños', 'Menús para dietas especiales (bajo petición)', 'Snack-bar', 'Bar', 'Restaurante', 'Parking en un garaje', 'Servicio de conserjería', 'Guardaequipaje', 'Información turística', 'Recepción 24 horas', 'Canguro / servicios para niños', 'Servicio de limpieza diario', 'Plancha para pantalones', 'Servicio de planchado', 'Servicio de limpieza en seco', 'Servicio de lavandería', 'Fax / fotocopiadora', 'Salas de reuniones / banquetes', 'Extintores', 'Llave de acceso', 'Seguridad 24 horas', 'Caja fuerte', 'Servicio de traslado', 'Servicio de entrega de comestibles', 'Zona TV / salón de uso compartido', 'Aire acondicionado', 'Prohibido fumar en todo el alojamiento', 'Calefacción', 'Alquiler de coches', 'Almuerzos para llevar', 'Ascensor', 'Habitaciones familiares', 'Traslado aeropuerto', 'Habitaciones sin humo', 'Servicio de habitaciones', 'Abierta todo el año', 'Abierta todo el año', 'Gimnasio', 'Paquetes de spa / bienestar', 'Zona de spa / relajación', 'Baño de vapor', 'Instalaciones de spa', 'Exfoliación corporal', 'Tratamientos corporales', 'Tratamientos faciales', 'Servicios de belleza', 'Sombrillas', 'Baños públicos', 'Masajes', 'Spa y centro de bienestar', 'Solárium', 'Gimnasio', 'Sauna', 'Inglés', 'Español', 'Portugués']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>El Club Hotel Casapueblo ocupa un pintoresco edificio de estilo mediterráneo diseñado por el famoso artista local Paez Vilaro y cuenta con spa, gimnasio, piscina y restaurante con vistas a la playa Mansa. La plaza de Las Grutas está a 200 metros.
-Las habitaciones del Hotel Casapueblo son amplias y luminosas y disponen de calefacción y aire acondicionado. Están decoradas con suelo de parquet y muebles elegantes.
-Todos los días se sirve un desayuno buffet que incluye café, té, pan, mermelada y huevos. El restaurante Terrazas sirve platos internacionales en una terraza encantadora con vistas a la costa.
-Este hotel dispone de un spa con sauna y sala de masajes. El establecimiento cuenta con tumbonas junto a la piscina y centro de fitness.
-El Club Hotel Casapueblo está justo enfrente de la playa. El centro de Punta del Este está a 10 km. El aeropuerto de Laguna del Sauce está a 5 km.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Arapey Oasis Termal Hotel</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>US$101</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>8,9</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Fabuloso</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1.245</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://cf.bstatic.com/xdata/images/hotel/square600/34185421.webp?k=d016c87608667d4c3fac1ef5601a7b6ab3c801ea904cfa26d0272c406e6261e5&amp;o=</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/arapey-oasis-termal.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=33906103_329286836_0_2_0&amp;highlighted_blocks=33906103_329286836_0_2_0&amp;matching_block_id=33906103_329286836_0_2_0&amp;sr_pri_blocks=33906103_329286836_0_2_0__10120&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>['2 piscinas', 'Parking gratis', 'WiFi gratis', 'Habitaciones familiares', 'Spa y centro de bienestar', 'Gimnasio', 'Restaurante', 'Servicio de habitaciones', 'Tetera/cafetera en todas las habitaciones', 'Desayuno fabuloso', '2 piscinas', 'Parking gratis', 'WiFi gratis', 'Habitaciones familiares', 'Spa y centro de bienestar', 'Gimnasio', 'Restaurante', 'Servicio de habitaciones', 'Tetera/cafetera en todas las habitaciones', 'Desayuno fabuloso', 'Papel higiénico', 'Toallas', 'Bidet', 'Toallas / sábanas (por un suplemento)', 'Bañera o ducha', 'Baño privado', 'WC', 'Artículos de aseo gratis', 'Albornoz', 'Secador de pelo', 'Bañera', 'Ducha', 'Ropa de cama', 'Armario', 'Vistas a un patio interior', 'Vistas a la ciudad', 'Vistas a la piscina', 'Vistas al jardín', 'Vistas', 'Mobiliario exterior', 'Terraza / solárium', 'Piscina privada', 'Patio', 'Terraza', 'Jardín', 'Mesa de comedor', 'Hervidor eléctrico', 'Enchufe cerca de la cama', 'Sofá cama', 'Tendedero', 'Perchero', 'Alquiler de bicicletas', 'Bingo', 'Aeróbic', 'Tours en bici', 'Tours a pie', 'Club infantil', 'Personal de animación', 'Ciclismo', 'Ping pong', 'Zona de juegos para niños', 'Sala de juegos', 'Pesca', 'Bañera de hidromasaje', 'Campo de golf (a menos de 3 km)', 'Zona de comedor', 'Sofá', 'Zona de estar', 'TV de pantalla plana', 'Canales vía satélite', 'Vídeo', 'Reproductor de DVD', 'Radio', 'Fax', 'Teléfono', 'TV', 'Canales de pago', 'Fruta', 'Vino / champán', 'Menú para niños', 'Menús para dietas especiales (bajo petición)', 'Desayuno en la habitación', 'Minibar', 'Restaurante', 'Tetera / cafetera', 'Parking en la calle', 'Servicio de conserjería', 'Guardaequipaje', 'Información turística', 'Recepción 24 horas', 'Equipamiento de juegos para exterior', 'Zona de juegos interior', 'Juegos de mesa / puzles', 'Libros, DVD o música para niños', 'Servicio de limpieza diario', 'Servicio de planchado', 'Servicio de lavandería', 'Fax / fotocopiadora', 'Extintores', 'Detectores de humo', 'Alarma de seguridad', 'Llave de acceso', 'Caja fuerte', 'Zona TV / salón de uso compartido', 'Aire acondicionado', 'Mosquitera', 'Servicio de despertador', 'Suelo de baldosa / mármol', 'Calefacción', 'Entrada privada', 'Almuerzos para llevar', 'Ventilador', 'Habitaciones familiares', 'Adaptado personas de movilidad reducida', 'Habitaciones sin humo', 'Plancha para ropa', 'Servicio de despertador / alarma', 'Servicio de habitaciones', 'WC con barras de apoyo', 'Adaptado para sillas de ruedas', 'Toda la unidad en la planta baja', 'Abierta todo el año', 'Para todas las edades', 'Piscina con vistas', 'Zona poco profunda', 'Toallas de playa/piscina', 'Tumbonas/sillas de playa', 'Sombrillas', 'Abierta todo el año', 'Para todas las edades', 'Zona poco profunda', 'Toallas de playa/piscina', 'Cubierta para piscina', 'Tumbonas/sillas de playa', 'Sombrillas', 'Clases de fitness', 'Gimnasio', 'Paquetes de spa / bienestar', 'Zona de spa / relajación', 'Instalaciones de spa', 'Sombrillas', 'Tumbonas/sillas de playa', 'Baños públicos', 'Bañera de hidromasaje / jacuzzi', 'Masajes', 'Spa y centro de bienestar', 'Solárium', 'Gimnasio', 'Sauna', 'Español']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/arapey-oasis-termal.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683551&amp;all_sr_blocks=33906103_329286836_0_2_0&amp;highlighted_blocks=33906103_329286836_0_2_0&amp;matching_block_id=33906103_329286836_0_2_0&amp;sr_pri_blocks=33906103_329286836_0_2_0__10120&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Cubierta para piscina', 'Jardín', 'Menú para niños', 'Suelo de baldosa / mármol', 'Baños públicos', 'Menús para dietas especiales (bajo petición)', 'Entrada privada', 'Reproductor de DVD', 'Ping pong', 'Sombrillas', 'Habitaciones sin humo', 'Servicio de conserjería', 'Tetera/cafetera en todas las habitaciones', 'Zona de spa / relajación', 'Para todas las edades', 'Tumbonas/sillas de playa', 'Toallas / sábanas (por un suplemento)', 'Pesca', 'Zona de estar', 'Parking gratis', 'Libros, DVD o música para niños', 'Tours en bici', 'Secador de pelo', 'Minibar', 'Canales vía satélite', 'Calefacción', 'Sala de juegos', 'Vino / champán', 'Tours a pie', 'Club infantil', 'Sofá cama', 'Piscina privada', 'Extintores', 'WC con barras de apoyo', 'Vistas', 'Fruta', 'Restaurante', 'Tetera / cafetera', 'TV de pantalla plana', 'Mosquitera', 'Español', 'Desayuno en la habitación', 'Ventilador', 'Clases de fitness', 'Caja fuerte', 'Terraza / solárium', 'Masajes', 'Detectores de humo', 'Servicio de planchado', 'Adaptado personas de movilidad reducida', 'Canales de pago', 'Servicio de lavandería', 'Fax', 'Patio', 'Albornoz', 'Servicio de despertador / alarma', 'Aire acondicionado', 'Zona poco profunda', 'Servicio de habitaciones', 'Teléfono', 'Habitaciones familiares', 'Información turística', 'Abierta todo el año', 'Ducha', 'Gimnasio', 'Guardaequipaje', 'Ropa de cama', 'Bañera o ducha', 'Zona de juegos para niños', 'Paquetes de spa / bienestar', 'Bañera de hidromasaje', 'Aeróbic', 'Vídeo', 'Adaptado para sillas de ruedas', 'Bañera de hidromasaje / jacuzzi', 'Baño privado', 'Vistas a un patio interior', 'Piscina con vistas', 'Personal de animación', 'Papel higiénico', 'Zona de comedor', 'Llave de acceso', 'Mesa de comedor', '2 piscinas', 'TV', 'Desayuno fabuloso', 'Equipamiento de juegos para exterior', 'Alarma de seguridad', 'Zona TV / salón de uso compartido', 'Bingo', 'Artículos de aseo gratis', 'Recepción 24 horas', 'Enchufe cerca de la cama', 'WC', 'Alquiler de bicicletas', 'Solárium', 'Vistas a la piscina', 'Mobiliario exterior', 'Perchero', 'Zona de juegos interior', 'Hervidor eléctrico', 'Toda la unidad en la planta baja', 'Armario', 'Instalaciones de spa', 'Ciclismo', 'Vistas a la ciudad', 'Plancha para ropa', 'Terraza', 'WiFi gratis', 'Campo de golf (a menos de 3 km)', 'Toallas', 'Bidet', 'Servicio de limpieza diario', 'Vistas al jardín', 'Servicio de despertador', 'Parking en la calle', 'Almuerzos para llevar', 'Juegos de mesa / puzles', 'Sofá', 'Fax / fotocopiadora', 'Tendedero', 'Bañera', 'Radio', 'Sauna', 'Toallas de playa/piscina', 'Spa y centro de bienestar']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>Este hotel está situado a solo 5 metros de las termas del Arapey y cuenta con 2 grandes piscinas de aguas termales, una bañera de hidromasaje y una zona de spa. Dispone de habitaciones con conexión Wi-Fi gratuita y aire acondicionado y ofrece bicicletas gratuitas.
 En el Arapey Oasis Termal Hotel, los huéspedes podrán reservar un masaje, relajarse en las hamacas o hacer ejercicio en el gimnasio. Cuenta con extensos jardines y una piscina con tumbonas.
@@ -982,48 +631,48 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Gran Hotel Brisas del Hum</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>US$84</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>7,9</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Bien</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>476</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://cf.bstatic.com/xdata/images/hotel/square600/73816134.webp?k=e77dbf5f69a22a1f32c9769e415b83889c1021d6b8ea4a25a9247abc4d732234&amp;o=</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/gran-brisas-del-hum.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=11&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=31582701_89161243_0_1_0&amp;highlighted_blocks=31582701_89161243_0_1_0&amp;matching_block_id=31582701_89161243_0_1_0&amp;sr_pri_blocks=31582701_89161243_0_1_0__8400&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>['Piscina al aire libre', 'WiFi gratis', 'Gimnasio', 'Habitaciones sin humo', 'Buen desayuno', 'Piscina al aire libre', 'WiFi gratis', 'Gimnasio', 'Habitaciones sin humo', 'Buen desayuno', 'Papel higiénico', 'Toallas', 'Bidet', 'Toallas / sábanas (por un suplemento)', 'Bañera o ducha', 'Baño privado', 'WC', 'Artículos de aseo gratis', 'Secador de pelo', 'Ducha', 'Ropa de cama', 'Armario', 'Reloj despertador', 'Vistas', 'Terraza / solárium', 'Terraza', 'Nevera', 'Enchufe cerca de la cama', 'Perchero', 'Ping pong', 'Sala de juegos', 'TV de pantalla plana', 'Canales por cable', 'Teléfono', 'TV', 'Minibar', 'Servicio de conserjería', 'Guardaequipaje', 'Información turística', 'Recepción 24 horas', 'Zona de juegos interior', 'Juegos de mesa / puzles', 'Servicio de planchado', 'Servicio de lavandería', 'Fax / fotocopiadora', 'Centro de negocios', 'Salas de reuniones / banquetes', 'Extintores', 'Detectores de humo', 'Caja fuerte', 'Zona de fumadores', 'Aire acondicionado', 'Prohibido fumar en todo el alojamiento', 'Servicio de despertador', 'Calefacción', 'Suelo de moqueta', 'Ascensor', 'Habitaciones sin humo', 'Servicio de despertador / alarma', 'Acceso a pisos superiores solo mediante escaleras', 'Acceso a pisos superiores en ascensor', 'De temporada', 'Gimnasio', 'Sombrillas', 'Solárium', 'Gimnasio', 'Español']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/gran-brisas-del-hum.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683551&amp;all_sr_blocks=31582701_89161243_0_1_0&amp;highlighted_blocks=31582701_89161243_0_1_0&amp;matching_block_id=31582701_89161243_0_1_0&amp;sr_pri_blocks=31582701_89161243_0_1_0__8400&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Recepción 24 horas', 'Teléfono', 'Prohibido fumar en todo el alojamiento', 'Secador de pelo', 'Enchufe cerca de la cama', 'Sala de juegos', 'Canales por cable', 'WC', 'Información turística', 'Buen desayuno', 'Salas de reuniones / banquetes', 'Calefacción', 'Solárium', 'Ducha', 'Ascensor', 'Gimnasio', 'Guardaequipaje', 'Ropa de cama', 'Perchero', 'Bañera o ducha', 'Zona de juegos interior', 'Acceso a pisos superiores en ascensor', 'Extintores', 'Baño privado', 'Armario', 'Vistas', 'Ping pong', 'Sombrillas', 'TV de pantalla plana', 'Piscina al aire libre', 'Habitaciones sin humo', 'Terraza', 'Papel higiénico', 'Centro de negocios', 'WiFi gratis', 'Servicio de conserjería', 'Toallas', 'Bidet', 'Zona de fumadores', 'Suelo de moqueta', 'De temporada', 'Español', 'Servicio de despertador', 'Acceso a pisos superiores solo mediante escaleras', 'Juegos de mesa / puzles', 'Caja fuerte', 'TV', 'Terraza / solárium', 'Nevera', 'Detectores de humo', 'Fax / fotocopiadora', 'Servicio de planchado', 'Servicio de lavandería', 'Artículos de aseo gratis', 'Toallas / sábanas (por un suplemento)', 'Servicio de despertador / alarma', 'Aire acondicionado', 'Reloj despertador', 'Minibar']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>Este establecimiento se encuentra en el centro de Mercedes, a solo 4 calles del río Negro, y dispone de piscina al aire libre con zona de terraza y gimnasio. Algunas tienen balcón privado.
 El Gran Hotel Brisas del Hum cuenta con un vestíbulo de estilo moderno. Hay conexión Wi-Fi gratuita en las zonas comunes.
@@ -1032,144 +681,95 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Like Design Hotel Rivera</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>US$54</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>9,3</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Fantástico</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>403</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://cf.bstatic.com/xdata/images/hotel/square600/472285288.webp?k=fbcd7855bde1167dd7b9c5bb4c1e87327dc4bb4b470a29c050c6edd0684146bb&amp;o=</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/like-design-rivera.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=12&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=1024825301_375141470_1_1_0&amp;highlighted_blocks=1024825301_375141470_1_1_0&amp;matching_block_id=1024825301_375141470_1_1_0&amp;sr_pri_blocks=1024825301_375141470_1_1_0__5390&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>['WiFi gratis', 'Gimnasio', 'Habitaciones sin humo', 'Habitaciones familiares', 'Desayuno fantástico', 'WiFi gratis', 'Gimnasio', 'Habitaciones sin humo', 'Habitaciones familiares', 'Desayuno fantástico', 'Terraza / solárium', 'Terraza', 'Proporciona factura', 'Registro de entrada / salida privado', 'Servicio de conserjería', 'Guardaequipaje', 'Información turística', 'Recepción 24 horas', 'Servicio de limpieza diario', 'Servicio de planchado', 'Servicio de lavandería', 'Salas de reuniones / banquetes', 'Extintores', 'Cámaras de seguridad fuera del alojamiento', 'Cámaras de seguridad en las zonas comunitarias', 'Detectores de humo', 'Alarma de seguridad', 'Tarjeta de acceso', 'Caja fuerte', 'Servicio de traslado', 'Zona TV / salón de uso compartido', 'Aire acondicionado', 'Prohibido fumar en todo el alojamiento', 'Calefacción', 'Alquiler de coches', 'Ascensor', 'Habitaciones familiares', 'Habitaciones sin humo', 'Gimnasio', 'Solárium', 'Gimnasio', 'Español', 'Portugués']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/like-design-rivera.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683551&amp;all_sr_blocks=1024825301_375141470_1_1_0&amp;highlighted_blocks=1024825301_375141470_1_1_0&amp;matching_block_id=1024825301_375141470_1_1_0&amp;sr_pri_blocks=1024825301_375141470_1_1_0__5390&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['Recepción 24 horas', 'Cámaras de seguridad fuera del alojamiento', 'Prohibido fumar en todo el alojamiento', 'Calefacción', 'Salas de reuniones / banquetes', 'Habitaciones familiares', 'Información turística', 'Solárium', 'Ascensor', 'Gimnasio', 'Guardaequipaje', 'Alquiler de coches', 'Tarjeta de acceso', 'Proporciona factura', 'Extintores', 'Desayuno fantástico', 'Portugués', 'Habitaciones sin humo', 'Terraza', 'WiFi gratis', 'Registro de entrada / salida privado', 'Servicio de conserjería', 'Servicio de limpieza diario', 'Cámaras de seguridad en las zonas comunitarias', 'Español', 'Servicio de traslado', 'Caja fuerte', 'Terraza / solárium', 'Alarma de seguridad', 'Detectores de humo', 'Servicio de planchado', 'Zona TV / salón de uso compartido', 'Servicio de lavandería', 'Aire acondicionado']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>Like Design Hotel Rivera está en Rivera, a 16 min a pie de Estadio Atilio Paiva Olivera, y dispone de servicio de conserjería, habitaciones libres de humo, centro de fitness, wifi gratis en todo el alojamiento y salón de uso común. Este hotel de 4 estrellas ofrece mostrador de información turística y guardaequipaje. El hotel ofrece terraza y recepción 24 horas.</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>RocaMar Hostel Boutique</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>US$26</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>7,9</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Bien</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>829</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>https://cf.bstatic.com/xdata/images/hotel/square600/115481237.webp?k=b81f8ad96041ada64ad034e14c00cfbf837105084d0438f91142f2814c1eee4e&amp;o=</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/rocamar-hostel.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=13&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=271156114_146326809_0_42_0&amp;highlighted_blocks=271156114_146326809_0_42_0&amp;matching_block_id=271156114_146326809_0_42_0&amp;sr_pri_blocks=271156114_146326809_0_42_0__2565&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>['Parking gratis', 'WiFi gratis', 'Habitaciones familiares', 'Traslado aeropuerto', 'Servicio de habitaciones', 'Habitaciones sin humo', 'Restaurante', 'Adaptado personas de movilidad reducida', 'Bar', 'Muy buen desayuno', 'Parking gratis', 'WiFi gratis', 'Habitaciones familiares', 'Traslado aeropuerto', 'Servicio de habitaciones', 'Habitaciones sin humo', 'Restaurante', 'Adaptado personas de movilidad reducida', 'Bar', 'Muy buen desayuno', 'Zapatillas', 'Ropa de cama', 'Armario', 'Zona de pícnic', 'Mobiliario exterior', 'Zona de comedor exterior', 'Terraza / solárium', 'Patio', 'Terraza', 'Jardín', 'Cocina compartida', 'Horno', 'Lavadora', 'Enchufe cerca de la cama', 'Alquiler de bicicletas', 'Eventos deportivos en directo (emisión)', 'Música / espectáculos en directo', 'Happy hour', 'Noches de cine', 'Billar', 'Sala de juegos', 'Cafetería en el alojamiento', 'Fruta', 'Vino / champán', 'Snack-bar', 'Desayuno en la habitación', 'Bar', 'Restaurante', 'Parking en la calle', 'Proporciona factura', 'Registro de entrada / salida privado', 'Servicio de conserjería', 'Guardaequipaje', 'Información turística', 'Cambio de moneda', 'Registro de entrada y salida exprés', 'Zona de juegos interior', 'Juegos de mesa / puzles', 'Juegos de mesa / puzles', 'Protector de enchufes para niños', 'Servicio de limpieza diario', 'Servicio de lavandería', 'Fax / fotocopiadora', 'Extintores', 'Cámaras de seguridad fuera del alojamiento', 'Cámaras de seguridad en las zonas comunitarias', 'Detectores de humo', 'Alarma de seguridad', 'Tarjeta de acceso', 'Llave de acceso', 'Seguridad 24 horas', 'Servicio de traslado', 'Servicio de entrega de comestibles', 'Zona TV / salón de uso compartido', 'Zona de fumadores', 'Aire acondicionado', 'Habitaciones hipoalergénicas', 'Calefacción', 'Alquiler de coches', 'Almuerzos para llevar', 'Habitaciones insonorizadas', 'Ventilador', 'Habitaciones familiares', 'Adaptado personas de movilidad reducida', 'Traslado aeropuerto', 'Habitaciones sin humo', 'Servicio de habitaciones', 'Lavamanos más bajo', 'Adaptado para sillas de ruedas', 'Toda la unidad accesible en silla de ruedas', 'Toda la unidad en la planta baja', 'Sombrillas', 'Solárium', 'Inglés', 'Español', 'Portugués']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>El RocaMar Hostel Boutique ofrece WiFi gratuita en todas las instalaciones y se encuentra en Punta del Este, a 200 metros de Playa Brava. Los huéspedes podrán disfrutar del bar.
-El alojamiento dispone de TV de pantalla plana con canales por cable.
-El RocaMar Hostel Boutique está a 1,2 km del centro comercial y a 3,1 km de la feria de artesanía. El aeropuerto internacional Capitán Carlos A. Curbelo, el aeropuerto más cercano, está a 19 km.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Lobo Hostel Bar</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>US$22</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>8,4</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Muy bien</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>520</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://cf.bstatic.com/xdata/images/hotel/square600/518922440.webp?k=123fb980e27d6f4eeb1157dffb5e373a417c27f2268ed2d25ddcc170e8a77129&amp;o=</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/lobo-hostel-bar.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=14&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=132456401_265773545_1_42_0&amp;highlighted_blocks=132456401_265773545_1_42_0&amp;matching_block_id=132456401_265773545_1_42_0&amp;sr_pri_blocks=132456401_265773545_1_42_0__2160&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>['Restaurante', 'Habitaciones sin humo', 'Bar', 'Desayuno fantástico', 'Restaurante', 'Habitaciones sin humo', 'Bar', 'Desayuno fantástico', 'Papel higiénico', 'Baño compartido', 'Vistas', 'Zona de comedor exterior', 'Muebles de exterior', 'Barbacoa', 'Barbacoa', 'Jardín', 'Cocina compartida', 'Mesa de comedor', 'Fogones', 'Horno', 'Cocina', 'Zona de cocina', 'Tendedero', 'Perchero', 'Playa', 'Entretenimiento nocturno', 'Discoteca / DJ', 'Senderismo', 'Zona de comedor', 'Cafetería en el alojamiento', 'Fruta', 'Vino / champán', 'Menú para niños', 'Menús para dietas especiales (bajo petición)', 'Snack-bar', 'Bar', 'Restaurante', 'Zona TV / salón de uso compartido', 'Información turística', 'Almuerzos para llevar', 'Cambio de moneda', 'Recepción 24 horas', 'Juegos de mesa / puzles', 'Supermercado pequeño en el alojamiento', 'Habitaciones sin humo', 'Inglés', 'Español', 'Francés', 'Portugués']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/lobo-hostel-bar.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=132456401_265773545_1_42_0&amp;highlighted_blocks=132456401_265773545_1_42_0&amp;matching_block_id=132456401_265773545_1_42_0&amp;sr_pri_blocks=132456401_265773545_1_42_0__2160&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Recepción 24 horas', 'Horno', 'Información turística', 'Playa', 'Jardín', 'Vino / champán', 'Menú para niños', 'Discoteca / DJ', 'Bar', 'Muebles de exterior', 'Perchero', 'Fogones', 'Zona de comedor exterior', 'Menús para dietas especiales (bajo petición)', 'Senderismo', 'Zona de cocina', 'Desayuno fantástico', 'Vistas', 'Fruta', 'Restaurante', 'Portugués', 'Supermercado pequeño en el alojamiento', 'Habitaciones sin humo', 'Papel higiénico', 'Zona de comedor', 'Español', 'Francés', 'Cocina', 'Almuerzos para llevar', 'Juegos de mesa / puzles', 'Mesa de comedor', 'Baño compartido', 'Inglés', 'Cambio de moneda', 'Barbacoa', 'Tendedero', 'Zona TV / salón de uso compartido', 'Cocina compartida', 'Snack-bar', 'Cafetería en el alojamiento', 'Entretenimiento nocturno']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>El Lobo Hostel Bar ofrece un restaurante, espectáculos en directo y alojamientos cómodos en Cabo Polonio. Las instalaciones de playa son gratuitas y el bar del establecimiento sirve bebidas deliciosas.
 Las habitaciones compartidas disponen de roperos y baños compartidos.
@@ -1177,96 +777,96 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Hotel Sayonara by Las Calas</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>US$50</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>7,8</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Bien</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://cf.bstatic.com/xdata/images/hotel/square600/410572404.webp?k=c304e82cfb7da98e7f0136bf17211e49ef296889b7e138380ce7cd16f0157b8f&amp;o=</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/sayonara-by-las-calas.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=15&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=562827401_212033185_1_1_0&amp;highlighted_blocks=562827401_212033185_1_1_0&amp;matching_block_id=562827401_212033185_1_1_0&amp;sr_pri_blocks=562827401_212033185_1_1_0__5040&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>['WiFi gratis', 'Servicio de habitaciones', 'Habitaciones familiares', 'Habitaciones sin humo', 'Bar', 'Buen desayuno', 'WiFi gratis', 'Servicio de habitaciones', 'Habitaciones familiares', 'Habitaciones sin humo', 'Bar', 'Buen desayuno', 'Baño privado', 'Mobiliario exterior', 'Jardín', 'Sala de juegos', 'TV de pantalla plana', 'Cafetería en el alojamiento', 'Bar', 'Zona TV / salón de uso compartido', 'Registro de entrada / salida privado', 'Información turística', 'Cambio de moneda', 'Servicio de lavandería', 'Recepción 24 horas', 'Salas de reuniones / banquetes', 'Servicio de habitaciones', 'Proporciona factura', 'Cámaras de seguridad fuera del alojamiento', 'Cámaras de seguridad en las zonas comunitarias', 'Alarma de seguridad', 'Seguridad 24 horas', 'Aire acondicionado', 'Prohibido fumar en todo el alojamiento', 'Calefacción', 'Habitaciones insonorizadas', 'Habitaciones familiares', 'Habitaciones sin humo', 'Inglés', 'Español']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/sayonara-by-las-calas.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=562827401_212033185_1_1_0&amp;highlighted_blocks=562827401_212033185_1_1_0&amp;matching_block_id=562827401_212033185_1_1_0&amp;sr_pri_blocks=562827401_212033185_1_1_0__5040&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Recepción 24 horas', 'Cámaras de seguridad fuera del alojamiento', 'Prohibido fumar en todo el alojamiento', 'Calefacción', 'Sala de juegos', 'Salas de reuniones / banquetes', 'Habitaciones familiares', 'Buen desayuno', 'Información turística', 'Jardín', 'Mobiliario exterior', 'Bar', 'Proporciona factura', 'Baño privado', 'TV de pantalla plana', 'Habitaciones sin humo', 'WiFi gratis', 'Registro de entrada / salida privado', 'Habitaciones insonorizadas', 'Cámaras de seguridad en las zonas comunitarias', 'Español', 'Inglés', 'Cambio de moneda', 'Alarma de seguridad', 'Zona TV / salón de uso compartido', 'Servicio de lavandería', 'Seguridad 24 horas', 'Cafetería en el alojamiento', 'Aire acondicionado', 'Servicio de habitaciones']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>Hotel Sayonara by Las Calas se encuentra en Paso de los Toros y dispone de jardín, salón de uso común, bar y wifi gratis en todo el alojamiento. El alojamiento ofrece servicio de habitaciones, recepción 24 horas y cambio de moneda.
 Todas las unidades de este alojamiento están equipadas con TV de pantalla plana. En el hotel, todas las habitaciones cuentan con aire acondicionado y baño privado.</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Salinas del Almiron Resort Termal</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>US$180</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>8,7</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Fabuloso</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>736</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://cf.bstatic.com/xdata/images/hotel/square600/201529938.webp?k=dc03f828c8d7bc51b11b6ed095680b88c7f680c94e5e95a65cc6f28058b2bbb8&amp;o=</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/salinas-del-almiron-resort-termal.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=16&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=163633303_231703221_0_21_0&amp;highlighted_blocks=163633303_231703221_0_21_0&amp;matching_block_id=163633303_231703221_0_21_0&amp;sr_pri_blocks=163633303_231703221_0_21_0__18000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>['2 piscinas', 'WiFi gratis', 'Gimnasio', 'Adaptado personas de movilidad reducida', 'Restaurante', 'Parking gratis', 'Servicio de habitaciones', 'Habitaciones familiares', 'Bar', 'Desayuno fantástico', '2 piscinas', 'WiFi gratis', 'Gimnasio', 'Adaptado personas de movilidad reducida', 'Restaurante', 'Parking gratis', 'Servicio de habitaciones', 'Habitaciones familiares', 'Bar', 'Desayuno fantástico', 'Papel higiénico', 'Toallas', 'Bidet', 'Toallas / sábanas (por un suplemento)', 'Aseo adicional', 'Bañera o ducha', 'Baño privado', 'WC', 'Artículos de aseo gratis', 'Albornoz', 'Secador de pelo', 'Ducha', 'Ropa de cama', 'Armario', 'Vistas a un lugar de interés', 'Vistas a la piscina', 'Vistas al jardín', 'Vistas', 'Patio', 'Jardín', 'Hervidor eléctrico', 'Enchufe cerca de la cama', 'Tendedero', 'Perchero', 'Alquiler de bicicletas', 'Parque acuático', 'Club infantil', 'Personal de animación', 'Ping pong', 'Billar', 'Zona de juegos para niños', 'Sala de juegos', 'Sofá', 'Escritorio', 'TV de pantalla plana', 'Canales por cable', 'Canales vía satélite', 'Teléfono', 'TV', 'Canales de pago', 'Fruta', 'Vino / champán', 'Buffet para niños', 'Menú para niños', 'Menús para dietas especiales (bajo petición)', 'Snack-bar', 'Bar', 'Minibar', 'Restaurante', 'Estación de carga de vehículos eléctricos', 'Guardaequipaje', 'Información turística', 'Recepción 24 horas', 'Cochecitos de bebé', 'Zona de juegos interior', 'Juegos de mesa / puzles', 'Servicio de limpieza diario', 'Plancha para pantalones', 'Servicio de planchado', 'Servicio de lavandería', 'Fax / fotocopiadora', 'Salas de reuniones / banquetes', 'Extintores', 'Cámaras de seguridad fuera del alojamiento', 'Cámaras de seguridad en las zonas comunitarias', 'Detectores de humo', 'Caja fuerte', 'Zona TV / salón de uso compartido', 'Hipoalergénico', 'Aire acondicionado', 'Prohibido fumar en todo el alojamiento', 'Servicio de despertador', 'Suelo de baldosa / mármol', 'Calefacción', 'Insonorización', 'Caja fuerte para ordenador portátil', 'Ascensor', 'Habitaciones familiares', 'Adaptado personas de movilidad reducida', 'Habitaciones sin humo', 'Servicio de habitaciones', 'Acceso a pisos superiores solo mediante escaleras', 'Acceso a pisos superiores en ascensor', 'Horario de apertura', 'Abierta todo el año', 'Para todas las edades', 'Piscina climatizada', 'Piscina de agua salada', 'Toallas de playa/piscina', 'Tumbonas/sillas de playa', 'Horario de apertura', 'Abierta todo el año', 'Para todas las edades', 'Piscina con vistas', 'Piscina climatizada', 'Piscina de agua salada', 'Tobogán de agua', 'Toallas de playa/piscina', 'Tumbonas/sillas de playa', 'Sombrillas', 'Gimnasio', 'Tumbonas/sillas de playa', 'Tobogán de agua', 'Baños termales', 'Bañera de hidromasaje / jacuzzi', 'Masajes', 'Solárium', 'Gimnasio', 'Sauna', 'Inglés', 'Español', 'Portugués']</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/salinas-del-almiron-resort-termal.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=163633303_231703221_0_21_0&amp;highlighted_blocks=163633303_231703221_0_21_0&amp;matching_block_id=163633303_231703221_0_21_0&amp;sr_pri_blocks=163633303_231703221_0_21_0__18000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['Prohibido fumar en todo el alojamiento', 'Jardín', 'Menú para niños', 'Suelo de baldosa / mármol', 'Baños termales', 'Menús para dietas especiales (bajo petición)', 'Hipoalergénico', 'Ping pong', 'Caja fuerte para ordenador portátil', 'Sombrillas', 'Portugués', 'Habitaciones sin humo', 'Plancha para pantalones', 'Billar', 'Para todas las edades', 'Tumbonas/sillas de playa', 'Toallas / sábanas (por un suplemento)', 'Snack-bar', 'Parking gratis', 'Secador de pelo', 'Minibar', 'Canales vía satélite', 'Calefacción', 'Sala de juegos', 'Salas de reuniones / banquetes', 'Piscina climatizada', 'Vino / champán', 'Ascensor', 'Club infantil', 'Piscina de agua salada', 'Extintores', 'Desayuno fantástico', 'Vistas', 'Fruta', 'Restaurante', 'Buffet para niños', 'TV de pantalla plana', 'Español', 'Caja fuerte', 'Tobogán de agua', 'Masajes', 'Cochecitos de bebé', 'Detectores de humo', 'Servicio de planchado', 'Adaptado personas de movilidad reducida', 'Canales de pago', 'Servicio de lavandería', 'Vistas a un lugar de interés', 'Patio', 'Insonorización', 'Albornoz', 'Aire acondicionado', 'Servicio de habitaciones', 'Teléfono', 'Habitaciones familiares', 'Información turística', 'Abierta todo el año', 'Ducha', 'Gimnasio', 'Bar', 'Ropa de cama', 'Guardaequipaje', 'Bañera o ducha', 'Zona de juegos para niños', 'Bañera de hidromasaje / jacuzzi', 'Baño privado', 'Horario de apertura', 'Piscina con vistas', 'Personal de animación', 'Papel higiénico', '2 piscinas', 'TV', 'Inglés', 'Zona TV / salón de uso compartido', 'Artículos de aseo gratis', 'Recepción 24 horas', 'Cámaras de seguridad fuera del alojamiento', 'Parque acuático', 'Canales por cable', 'Enchufe cerca de la cama', 'WC', 'Alquiler de bicicletas', 'Solárium', 'Vistas a la piscina', 'Acceso a pisos superiores en ascensor', 'Perchero', 'Zona de juegos interior', 'Hervidor eléctrico', 'Armario', 'WiFi gratis', 'Toallas', 'Bidet', 'Servicio de limpieza diario', 'Cámaras de seguridad en las zonas comunitarias', 'Vistas al jardín', 'Servicio de despertador', 'Acceso a pisos superiores solo mediante escaleras', 'Juegos de mesa / puzles', 'Sofá', 'Escritorio', 'Fax / fotocopiadora', 'Tendedero', 'Aseo adicional', 'Estación de carga de vehículos eléctricos', 'Sauna', 'Toallas de playa/piscina']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>El Salinas del Almiron Resort Termal está situado en Guichón y ofrece WiFi gratuita en todas las dependencias. El establecimiento alberga un centro de spa, una piscina al aire libre abierta durante todo el año y un restaurante. Se sirve desayunos todos los días.
 Las habitaciones incluyen TV de pantalla plana y baño privado con bidet, ducha y artículos de aseo gratuitos.
@@ -1275,48 +875,48 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Hotel Juana de Ibarbourou</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>US$64</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>8,7</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Fabuloso</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>661</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://cf.bstatic.com/xdata/images/hotel/square600/179538761.webp?k=c1704f63c06b45c04bf382598be9990043d48de7ef324391d1781e3dbc07352d&amp;o=</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/juana-de-ibarbourou.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=17&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=41374307_140481481_0_1_0&amp;highlighted_blocks=41374307_140481481_0_1_0&amp;matching_block_id=41374307_140481481_0_1_0&amp;sr_pri_blocks=41374307_140481481_0_1_0__6375&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>['2 piscinas', 'Parking gratis', 'Traslado aeropuerto', 'Gimnasio', 'Adaptado personas de movilidad reducida', 'WiFi gratis', 'Restaurante', 'Servicio de habitaciones', 'Bar', 'Desayuno fabuloso', '2 piscinas', 'Parking gratis', 'Traslado aeropuerto', 'Gimnasio', 'Adaptado personas de movilidad reducida', 'WiFi gratis', 'Restaurante', 'Servicio de habitaciones', 'Bar', 'Desayuno fabuloso', 'Papel higiénico', 'Toallas', 'Bidet', 'Bañera o ducha', 'Baño privado', 'WC', 'Artículos de aseo gratis', 'Secador de pelo', 'Ducha', 'Ropa de cama', 'Armario', 'Camas extralargas (más de 2 metros)', 'Vistas a un patio interior', 'Vistas a un lugar de interés', 'Vistas al jardín', 'Zona de pícnic', 'Mobiliario exterior', 'Terraza / solárium', 'Patio', 'Terraza', 'Jardín', 'Nevera', 'Enchufe cerca de la cama', 'Perchero', 'Eventos deportivos en directo (emisión)', 'Música / espectáculos en directo', 'Escritorio', 'TV de pantalla plana', 'Canales por cable', 'Canales vía satélite', 'Fax', 'Teléfono', 'TV', 'Cafetería en el alojamiento', 'Fruta', 'Vino / champán', 'Menú para niños', 'Snack-bar', 'Desayuno en la habitación', 'Bar', 'Minibar', 'Restaurante', 'Parking adaptado para personas de movilidad reducida', 'Registro de entrada / salida privado', 'Servicio de conserjería', 'Guardaequipaje', 'Cambio de moneda', 'Recepción 24 horas', 'Servicio de limpieza diario', 'Servicio de planchado', 'Servicio de lavandería', 'Fax / fotocopiadora', 'Salas de reuniones / banquetes', 'Extintores', 'Cámaras de seguridad fuera del alojamiento', 'Cámaras de seguridad en las zonas comunitarias', 'Tarjeta de acceso', 'Servicio de traslado', 'Zona TV / salón de uso compartido', 'Zona de fumadores', 'Aire acondicionado', 'Prohibido fumar en todo el alojamiento', 'Mosquitera', 'Acceso al salón executive', 'Servicio de despertador', 'Suelo de madera o parquet', 'Calefacción', 'Entrada privada', 'Alquiler de coches', 'Habitaciones familiares', 'Adaptado personas de movilidad reducida', 'Traslado aeropuerto', 'Habitaciones sin humo', 'Servicio de despertador / alarma', 'Servicio de habitaciones', 'Apoyo visual: carteles táctiles', 'Toda la unidad accesible en silla de ruedas', 'Toda la unidad en la planta baja', 'Abierta todo el año', 'Solo para adultos', 'Piscina con vistas', 'Zona poco profunda', 'Toallas de playa/piscina', 'Tumbonas/sillas de playa', 'Sombrillas', 'Abierta todo el año', 'Adecuada para niños', 'Piscina con vistas', 'Piscina pequeña', 'Zona poco profunda', 'Toallas de playa/piscina', 'Tumbonas/sillas de playa', 'Sombrillas', 'Piscina infantil', 'Gimnasio', 'Sombrillas', 'Tumbonas/sillas de playa', 'Baños públicos', 'Baño al aire libre', 'Gimnasio', 'Inglés', 'Español', 'Portugués']</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/juana-de-ibarbourou.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=41374307_140481481_0_1_0&amp;highlighted_blocks=41374307_140481481_0_1_0&amp;matching_block_id=41374307_140481481_0_1_0&amp;sr_pri_blocks=41374307_140481481_0_1_0__6375&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['Prohibido fumar en todo el alojamiento', 'Jardín', 'Menú para niños', 'Baños públicos', 'Alquiler de coches', 'Zona de pícnic', 'Entrada privada', 'Sombrillas', 'Portugués', 'Habitaciones sin humo', 'Música / espectáculos en directo', 'Servicio de conserjería', 'Zona de fumadores', 'Servicio de traslado', 'Acceso al salón executive', 'Cambio de moneda', 'Tumbonas/sillas de playa', 'Snack-bar', 'Cafetería en el alojamiento', 'Parking gratis', 'Secador de pelo', 'Minibar', 'Canales vía satélite', 'Camas extralargas (más de 2 metros)', 'Calefacción', 'Salas de reuniones / banquetes', 'Vino / champán', 'Toda la unidad accesible en silla de ruedas', 'Extintores', 'Fruta', 'Restaurante', 'Mosquitera', 'TV de pantalla plana', 'Español', 'Desayuno en la habitación', 'Terraza / solárium', 'Parking adaptado para personas de movilidad reducida', 'Servicio de planchado', 'Adaptado personas de movilidad reducida', 'Servicio de lavandería', 'Vistas a un lugar de interés', 'Fax', 'Patio', 'Servicio de despertador / alarma', 'Aire acondicionado', 'Zona poco profunda', 'Servicio de habitaciones', 'Teléfono', 'Habitaciones familiares', 'Abierta todo el año', 'Ducha', 'Gimnasio', 'Bar', 'Ropa de cama', 'Guardaequipaje', 'Bañera o ducha', 'Traslado aeropuerto', 'Tarjeta de acceso', 'Baño privado', 'Vistas a un patio interior', 'Piscina con vistas', 'Papel higiénico', 'Registro de entrada / salida privado', 'Baño al aire libre', 'Adecuada para niños', 'Suelo de madera o parquet', '2 piscinas', 'TV', 'Nevera', 'Desayuno fabuloso', 'Inglés', 'Zona TV / salón de uso compartido', 'Artículos de aseo gratis', 'Apoyo visual: carteles táctiles', 'Piscina infantil', 'Recepción 24 horas', 'Cámaras de seguridad fuera del alojamiento', 'Canales por cable', 'Enchufe cerca de la cama', 'WC', 'Mobiliario exterior', 'Perchero', 'Toda la unidad en la planta baja', 'Armario', 'Terraza', 'Eventos deportivos en directo (emisión)', 'Piscina pequeña', 'WiFi gratis', 'Toallas', 'Bidet', 'Servicio de limpieza diario', 'Cámaras de seguridad en las zonas comunitarias', 'Vistas al jardín', 'Servicio de despertador', 'Escritorio', 'Fax / fotocopiadora', 'Toallas de playa/piscina', 'Solo para adultos']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>El Hotel Juana de Ibarbourou debe su nombre a la célebre poetisa y cuenta con jardín, restaurante y centro de fitness. El establecimiento se encuentra en Melo y ofrece habitaciones con WiFi gratuita y Smart TV. El alojamiento está situado a 3 km de la plaza de la Independencia.
 Todas las habitaciones del Juana de Ibarbourou constan de suelo de parquet, paredes de ladrillo a la vista y ventanas grandes con vistas al jardín. También disponen de aire acondicionado, calefacción y baño privado.
@@ -1327,48 +927,48 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Hotel Internacional</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>US$193</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>8,0</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Muy bien</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>768</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://cf.bstatic.com/xdata/images/hotel/square600/99957071.webp?k=4f20b639c64d753cf47e269746f506f0fa1304f753f90ddecc47ed5a932a78a9&amp;o=</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/internacional.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=18&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=35921104_89167267_0_1_0&amp;highlighted_blocks=35921104_89167267_0_1_0&amp;matching_block_id=35921104_89167267_0_1_0&amp;sr_pri_blocks=35921104_89167267_0_1_0__19300&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>['Parking gratis', 'WiFi gratis', 'Habitaciones familiares', 'Servicio de habitaciones', 'Gimnasio', 'Habitaciones sin humo', 'Bar', 'Muy buen desayuno', 'Parking gratis', 'WiFi gratis', 'Habitaciones familiares', 'Servicio de habitaciones', 'Gimnasio', 'Habitaciones sin humo', 'Bar', 'Muy buen desayuno', 'Papel higiénico', 'Toallas', 'Bidet', 'Bañera o ducha', 'Baño privado', 'WC', 'Artículos de aseo gratis', 'Secador de pelo', 'Ducha', 'Ropa de cama', 'Armario', 'Vistas a un patio interior', 'Vistas', 'Mobiliario exterior', 'Patio', 'Jardín', 'Nevera', 'Enchufe cerca de la cama', 'Tendedero', 'Perchero', 'Club infantil', 'Ping pong', 'Zona de juegos para niños', 'Sala de juegos', 'Sofá', 'TV de pantalla plana', 'Canales vía satélite', 'Teléfono', 'TV', 'Canales de pago', 'Cafetería en el alojamiento', 'Menús para dietas especiales (bajo petición)', 'Snack-bar', 'Desayuno en la habitación', 'Bar', 'Minibar', 'Parking en un garaje', 'Parking adaptado para personas de movilidad reducida', 'Proporciona factura', 'Registro de entrada / salida privado', 'Servicio de conserjería', 'Guardaequipaje', 'Información turística', 'Recepción 24 horas', 'Zona de juegos interior', 'Servicio de limpieza diario', 'Plancha para pantalones', 'Servicio de planchado', 'Servicio de lavandería', 'Fax / fotocopiadora', 'Centro de negocios', 'Salas de reuniones / banquetes', 'Extintores', 'Cámaras de seguridad fuera del alojamiento', 'Cámaras de seguridad en las zonas comunitarias', 'Detectores de humo', 'Alarma de seguridad', 'Tarjeta de acceso', 'Seguridad 24 horas', 'Caja fuerte', 'Zona TV / salón de uso compartido', 'Zona de fumadores', 'Aire acondicionado', 'Prohibido fumar en todo el alojamiento', 'Servicio de despertador', 'Calefacción', 'Caja fuerte para ordenador portátil', 'Habitaciones familiares', 'Habitaciones sin humo', 'Servicio de despertador / alarma', 'Servicio de habitaciones', 'Gimnasio', 'Baños públicos', 'Gimnasio', 'Español', 'Portugués']</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/internacional.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=35921104_89167267_0_1_0&amp;highlighted_blocks=35921104_89167267_0_1_0&amp;matching_block_id=35921104_89167267_0_1_0&amp;sr_pri_blocks=35921104_89167267_0_1_0__19300&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['Prohibido fumar en todo el alojamiento', 'Jardín', 'Baños públicos', 'Menús para dietas especiales (bajo petición)', 'Proporciona factura', 'Ping pong', 'Caja fuerte para ordenador portátil', 'Portugués', 'Habitaciones sin humo', 'Plancha para pantalones', 'Centro de negocios', 'Servicio de conserjería', 'Zona de fumadores', 'Snack-bar', 'Seguridad 24 horas', 'Cafetería en el alojamiento', 'Parking gratis', 'Secador de pelo', 'Minibar', 'Canales vía satélite', 'Calefacción', 'Sala de juegos', 'Salas de reuniones / banquetes', 'Club infantil', 'Extintores', 'Vistas', 'TV de pantalla plana', 'Español', 'Desayuno en la habitación', 'Caja fuerte', 'Parking en un garaje', 'Parking adaptado para personas de movilidad reducida', 'Detectores de humo', 'Servicio de planchado', 'Canales de pago', 'Servicio de lavandería', 'Patio', 'Servicio de despertador / alarma', 'Aire acondicionado', 'Servicio de habitaciones', 'Teléfono', 'Habitaciones familiares', 'Información turística', 'Ducha', 'Gimnasio', 'Bar', 'Ropa de cama', 'Guardaequipaje', 'Bañera o ducha', 'Zona de juegos para niños', 'Tarjeta de acceso', 'Baño privado', 'Vistas a un patio interior', 'Muy buen desayuno', 'Papel higiénico', 'Registro de entrada / salida privado', 'TV', 'Nevera', 'Alarma de seguridad', 'Zona TV / salón de uso compartido', 'Artículos de aseo gratis', 'Recepción 24 horas', 'Cámaras de seguridad fuera del alojamiento', 'Enchufe cerca de la cama', 'WC', 'Mobiliario exterior', 'Perchero', 'Zona de juegos interior', 'Armario', 'WiFi gratis', 'Toallas', 'Bidet', 'Servicio de limpieza diario', 'Cámaras de seguridad en las zonas comunitarias', 'Servicio de despertador', 'Sofá', 'Fax / fotocopiadora', 'Tendedero']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>El Hotel Internacional está situado en la avenida Brasil de Chuy, en la frontera entre Uruguay y Brasil. Sirve un desayuno bufé incluido todos los días y ofrece habitaciones con conexión Wi-Fi gratuita y TV de plasma.
 Las habitaciones del Internacional Hotel están decoradas con suelo de baldosa y disponen de calefacción y minibar. Todas las habitaciones y apartamentos tienen aire acondicionado.
@@ -1377,96 +977,96 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>La Araucana</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>US$53</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>8,8</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Fabuloso</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://cf.bstatic.com/xdata/images/hotel/square600/157275054.webp?k=13a13047cf7ee7972a49171e685681b84cfedda1250a0980c66aa5250ff13b07&amp;o=</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/la-araucana.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=19&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=282254901_125122264_1_0_0&amp;highlighted_blocks=282254901_125122264_1_0_0&amp;matching_block_id=282254901_125122264_1_0_0&amp;sr_pri_blocks=282254901_125122264_1_0_0__5300&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>['WiFi gratis', 'Parking gratis', 'Habitaciones sin humo', 'Habitaciones familiares', 'WiFi gratis', 'Parking gratis', 'Habitaciones sin humo', 'Habitaciones familiares', 'Papel higiénico', 'Baño privado', 'Vistas', 'Jardín', 'Hervidor eléctrico', 'Tendedero', 'Chimenea', 'TV de pantalla plana', 'Extintores', 'Aire acondicionado', 'Mosquitera', 'Calefacción', 'Ventilador', 'Habitaciones familiares', 'Habitaciones sin humo', 'Español']</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/la-araucana.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=11&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=282254901_125122264_1_0_0&amp;highlighted_blocks=282254901_125122264_1_0_0&amp;matching_block_id=282254901_125122264_1_0_0&amp;sr_pri_blocks=282254901_125122264_1_0_0__5300&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Habitaciones sin humo', 'Papel higiénico', 'Hervidor eléctrico', 'WiFi gratis', 'Calefacción', 'Extintores', 'Habitaciones familiares', 'Tendedero', 'Español', 'Baño privado', 'Jardín', 'Ventilador', 'Vistas', 'Parking gratis', 'Aire acondicionado', 'Mosquitera', 'Chimenea', 'TV de pantalla plana']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>La Araucana se encuentra en Tacuarembó y ofrece alojamiento con wifi gratis, aire acondicionado y acceso a un jardín.
 Algunas unidades también tienen una cocina americana equipada con nevera y microondas.</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Bali Hotel Boutique</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>US$79</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Fabuloso</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>219</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://cf.bstatic.com/xdata/images/hotel/square600/38859427.webp?k=32d202ea14b217f69217407486c4853f53ea6793392ec6cc021b6f50db05ff40&amp;o=</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/bali-san-gregorio-de-polanco.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=20&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=123806402_137115934_2_1_0&amp;highlighted_blocks=123806402_137115934_2_1_0&amp;matching_block_id=123806402_137115934_2_1_0&amp;sr_pri_blocks=123806402_137115934_2_1_0__7900&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>['Piscina al aire libre', 'WiFi gratis', 'Servicio de habitaciones', 'Habitaciones sin humo', 'Bar', 'Buen desayuno', 'Piscina al aire libre', 'WiFi gratis', 'Servicio de habitaciones', 'Habitaciones sin humo', 'Bar', 'Buen desayuno', 'Papel higiénico', 'Toallas', 'Toallas / sábanas (por un suplemento)', 'Baño privado', 'Artículos de aseo gratis', 'Secador de pelo', 'Ducha', 'Ropa de cama', 'Vistas', 'Mobiliario exterior', 'Terraza / solárium', 'Jardín', 'Productos de limpieza', 'Perchero', 'Galerías de arte temporales', 'TV de pantalla plana', 'Canales por cable', 'Cafetería en el alojamiento', 'Fruta', 'Vino / champán', 'Bar', 'Servicio de limpieza diario', 'Servicio de conserjería', 'Guardaequipaje', 'Información turística', 'Servicio de habitaciones', 'Extintores', 'Cámaras de seguridad en las zonas comunitarias', 'Aire acondicionado', 'Prohibido fumar en todo el alojamiento', 'Calefacción', 'Habitaciones sin humo', 'Abierta todo el año', 'Solo para adultos', 'Piscina climatizada', 'Solárium', 'Inglés', 'Español']</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/bali-san-gregorio-de-polanco.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=12&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=123806402_137115934_2_1_0&amp;highlighted_blocks=123806402_137115934_2_1_0&amp;matching_block_id=123806402_137115934_2_1_0&amp;sr_pri_blocks=123806402_137115934_2_1_0__7900&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Prohibido fumar en todo el alojamiento', 'Canales por cable', 'Calefacción', 'Información turística', 'Buen desayuno', 'Abierta todo el año', 'Piscina climatizada', 'Ducha', 'Jardín', 'Vino / champán', 'Mobiliario exterior', 'Solárium', 'Bar', 'Guardaequipaje', 'Ropa de cama', 'Perchero', 'Extintores', 'Baño privado', 'Vistas', 'Fruta', 'TV de pantalla plana', 'Piscina al aire libre', 'Habitaciones sin humo', 'Papel higiénico', 'WiFi gratis', 'Servicio de conserjería', 'Toallas', 'Servicio de limpieza diario', 'Galerías de arte temporales', 'Cámaras de seguridad en las zonas comunitarias', 'Español', 'Productos de limpieza', 'Terraza / solárium', 'Inglés', 'Artículos de aseo gratis', 'Toallas / sábanas (por un suplemento)', 'Cafetería en el alojamiento', 'Aire acondicionado', 'Secador de pelo', 'Servicio de habitaciones', 'Solo para adultos']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>El Bali Hotel Boutique está situado en San Gregorio de Polanco y ofrece alojamiento, una piscina al aire libre y un centro de fitness. Además, proporciona conexión WiFi gratuita y un desayuno continental diario.
 Todas las habitaciones del Bali Hotel Boutique están decoradas en un estilo indonesio y gozan de bonitas vistas al jardín y a la piscina. Cuentan con baño completo, TV de pantalla plana, minibar y aire acondicionado. Además, algunas están equipadas con bañera de hidromasaje y suelo de baldosa.
@@ -1475,48 +1075,48 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Arapey Thermal All Inclusive Resort &amp; Spa</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>US$300</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>8,9</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Fabuloso</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1.001</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://cf.bstatic.com/xdata/images/hotel/square600/61383221.webp?k=6639f12b82effd222222887f962dd848d244b76cefa8a15d32c7b2154d82567e&amp;o=</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/arapey-thermal-resort.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=21&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=31582504_332477452_2_85_0&amp;highlighted_blocks=31582504_332477452_2_85_0&amp;matching_block_id=31582504_332477452_2_85_0&amp;sr_pri_blocks=31582504_332477452_2_85_0__30000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>['3 piscinas', 'Parking gratis', 'WiFi gratis', 'Habitaciones familiares', 'Spa y centro de bienestar', 'Gimnasio', 'Restaurante', 'Adaptado personas de movilidad reducida', 'Bar', 'Desayuno fantástico', '3 piscinas', 'Parking gratis', 'WiFi gratis', 'Habitaciones familiares', 'Spa y centro de bienestar', 'Gimnasio', 'Restaurante', 'Adaptado personas de movilidad reducida', 'Bar', 'Desayuno fantástico', 'Papel higiénico', 'Toallas', 'Bidet', 'Bañera o ducha', 'Baño privado', 'WC', 'Artículos de aseo gratis', 'Albornoz', 'Secador de pelo', 'Bañera', 'Ducha', 'Ropa de cama', 'Armario', 'Reloj despertador', 'Vistas a un lugar de interés', 'Vistas al jardín', 'Vistas al lago', 'Vistas', 'Zona de pícnic', 'Mobiliario exterior', 'Terraza / solárium', 'Barbacoa', 'Terraza', 'Jardín', 'Enchufe cerca de la cama', 'Perchero', 'Alquiler de bicicletas', 'Bingo', 'Aeróbic', 'Tiro con arco', 'Eventos deportivos en directo (emisión)', 'Música / espectáculos en directo', 'Clases de cocina', 'Tour o clase sobre cultura local', 'Happy hour', 'Cenas temáticas', 'Tours en bici', 'Tours a pie', 'Noches de cine', 'Equipamiento de tenis', 'Entretenimiento nocturno', 'Club infantil', 'Instalaciones para deportes acuáticos en el alojamiento', 'Personal de animación', 'Minigolf', 'Ciclismo', 'Senderismo', 'Dardos', 'Karaoke', 'Ping pong', 'Billar', 'Zona de juegos para niños', 'Sala de juegos', 'Pesca', 'Campo de golf (a menos de 3 km)', 'Pista de tenis', 'Zona de estar', 'Escritorio', 'TV de pantalla plana', 'Canales por cable', 'Canales vía satélite', 'Radio', 'Teléfono', 'TV', 'Cafetería en el alojamiento', 'Fruta', 'Vino / champán', 'Buffet para niños', 'Menú para niños', 'Menús para dietas especiales (bajo petición)', 'Snack-bar', 'Bar', 'Minibar', 'Restaurante', 'Servicio de aparcacoches', 'Parking adaptado para personas de movilidad reducida', 'Proporciona factura', 'Taquillas', 'Registro de entrada / salida privado', 'Servicio de conserjería', 'Guardaequipaje', 'Información turística', 'Registro de entrada y salida exprés', 'Recepción 24 horas', 'Barandillas protectoras para bebés', 'Equipamiento de juegos para exterior', 'Zona de juegos interior', 'Juegos de mesa / puzles', 'Protector de enchufes para niños', 'Canguro / servicios para niños', 'Servicio de limpieza diario', 'Plancha para pantalones', 'Servicio de planchado', 'Servicio de limpieza en seco', 'Servicio de lavandería', 'Fax / fotocopiadora', 'Centro de negocios', 'Salas de reuniones / banquetes', 'Extintores', 'Cámaras de seguridad fuera del alojamiento', 'Cámaras de seguridad en las zonas comunitarias', 'Detectores de humo', 'Alarma de seguridad', 'Tarjeta de acceso', 'Seguridad 24 horas', 'Caja fuerte', 'Zona TV / salón de uso compartido', 'Hipoalergénico', 'Zona de fumadores', 'Aire acondicionado', 'Prohibido fumar en todo el alojamiento', 'Habitaciones hipoalergénicas', 'Acceso al salón executive', 'Servicio de despertador', 'Calefacción', 'Insonorización', 'Alquiler de coches', 'Caja fuerte para ordenador portátil', 'Habitaciones comunicadas disponibles', 'Suelo de moqueta', 'Habitaciones insonorizadas', 'Ascensor', 'Habitaciones familiares', 'Adaptado personas de movilidad reducida', 'Habitaciones sin humo', 'Servicio de despertador / alarma', 'Toda la unidad accesible en silla de ruedas', 'Acceso a pisos superiores en ascensor', 'Horario de apertura', 'Abierta todo el año', 'Para todas las edades', 'Piscina con vistas', 'Piscina climatizada', 'Juguetes para la piscina', 'Toallas de playa/piscina', 'Bar en la piscina', 'Cubierta para piscina', 'Sombrillas', 'Horario de apertura', 'Abierta todo el año', 'Abierta todo el año', 'Para todas las edades', 'Piscina infinita', 'Piscina con vistas', 'Piscina climatizada', 'Zona poco profunda', 'Juguetes para la piscina', 'Toallas de playa/piscina', 'Bar en la piscina', 'Cubierta para piscina', 'Sombrillas', 'Piscina infantil', 'Taquillas en el gimnasio / spa', 'Entrenador personal', 'Clases de fitness', 'Clases de yoga', 'Gimnasio', 'Silla de masajes', 'Paquetes de spa / bienestar', 'Pediluvio', 'Zona de spa / relajación', 'Baño de vapor', 'Instalaciones de spa', 'Terapia con luz', 'Envoltura corporal', 'Exfoliación corporal', 'Tratamientos corporales', 'Peinado', 'Tinte', 'Corte de pelo', 'Pedicura', 'Manicura', 'Tratamientos capilares', 'Servicios de maquillaje', 'Servicios de depilación', 'Tratamientos faciales', 'Servicios de belleza', 'Sombrillas', 'Tumbonas/sillas de playa', 'Baños termales', 'Hammam', 'Masajes', 'Spa y centro de bienestar', 'Solárium', 'Gimnasio', 'Sauna', 'Inglés', 'Español', 'Portugués']</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/arapey-thermal-resort.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=13&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=31582504_332477452_2_85_0&amp;highlighted_blocks=31582504_332477452_2_85_0&amp;matching_block_id=31582504_332477452_2_85_0&amp;sr_pri_blocks=31582504_332477452_2_85_0__30000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Hammam', 'Prohibido fumar en todo el alojamiento', 'Cubierta para piscina', 'Pediluvio', 'Jardín', 'Menú para niños', 'Baños termales', 'Vistas al lago', 'Alquiler de coches', 'Tratamientos corporales', 'Menús para dietas especiales (bajo petición)', 'Proporciona factura', 'Zona de pícnic', 'Hipoalergénico', 'Ping pong', 'Caja fuerte para ordenador portátil', 'Sombrillas', 'Portugués', 'Habitaciones sin humo', 'Plancha para pantalones', 'Centro de negocios', 'Música / espectáculos en directo', 'Servicio de conserjería', 'Habitaciones hipoalergénicas', 'Zona de fumadores', 'Suelo de moqueta', 'Billar', 'Habitaciones insonorizadas', 'Zona de spa / relajación', 'Acceso al salón executive', 'Exfoliación corporal', 'Para todas las edades', 'Barbacoa', 'Dardos', 'Tumbonas/sillas de playa', 'Snack-bar', 'Seguridad 24 horas', 'Cafetería en el alojamiento', 'Pesca', 'Parking gratis', 'Zona de estar', 'Tours en bici', 'Secador de pelo', 'Minibar', 'Instalaciones para deportes acuáticos en el alojamiento', 'Protector de enchufes para niños', 'Canales vía satélite', 'Calefacción', 'Sala de juegos', 'Salas de reuniones / banquetes', 'Servicios de depilación', 'Piscina climatizada', 'Vino / champán', 'Tours a pie', 'Ascensor', 'Manicura', 'Servicios de maquillaje', 'Cenas temáticas', 'Club infantil', 'Toda la unidad accesible en silla de ruedas', 'Extintores', 'Desayuno fantástico', 'Registro de entrada y salida exprés', 'Vistas', 'Fruta', 'Restaurante', 'Buffet para niños', 'TV de pantalla plana', 'Habitaciones comunicadas disponibles', 'Español', '3 piscinas', 'Clases de fitness', 'Tratamientos capilares', 'Caja fuerte', 'Bar en la piscina', 'Terraza / solárium', 'Masajes', 'Canguro / servicios para niños', 'Parking adaptado para personas de movilidad reducida', 'Detectores de humo', 'Servicio de planchado', 'Adaptado personas de movilidad reducida', 'Terapia con luz', 'Servicio de lavandería', 'Vistas a un lugar de interés', 'Insonorización', 'Albornoz', 'Barandillas protectoras para bebés', 'Servicio de despertador / alarma', 'Aire acondicionado', 'Tiro con arco', 'Zona poco profunda', 'Reloj despertador', 'Teléfono', 'Piscina infinita', 'Habitaciones familiares', 'Información turística', 'Abierta todo el año', 'Ducha', 'Gimnasio', 'Bar', 'Ropa de cama', 'Guardaequipaje', 'Bañera o ducha', 'Zona de juegos para niños', 'Paquetes de spa / bienestar', 'Aeróbic', 'Tarjeta de acceso', 'Senderismo', 'Baño privado', 'Horario de apertura', 'Noches de cine', 'Piscina con vistas', 'Personal de animación', 'Papel higiénico', 'Corte de pelo', 'Registro de entrada / salida privado', 'Peinado', 'Clases de cocina', 'Juguetes para la piscina', 'TV', 'Inglés', 'Equipamiento de juegos para exterior', 'Alarma de seguridad', 'Servicio de limpieza en seco', 'Servicios de belleza', 'Silla de masajes', 'Zona TV / salón de uso compartido', 'Tour o clase sobre cultura local', 'Bingo', 'Artículos de aseo gratis', 'Piscina infantil', 'Taquillas', 'Entrenador personal', 'Recepción 24 horas', 'Cámaras de seguridad fuera del alojamiento', 'Karaoke', 'Pedicura', 'Canales por cable', 'Enchufe cerca de la cama', 'WC', 'Alquiler de bicicletas', 'Taquillas en el gimnasio / spa', 'Solárium', 'Mobiliario exterior', 'Equipamiento de tenis', 'Minigolf', 'Happy hour', 'Perchero', 'Servicio de aparcacoches', 'Zona de juegos interior', 'Acceso a pisos superiores en ascensor', 'Tinte', 'Clases de yoga', 'Armario', 'Instalaciones de spa', 'Ciclismo', 'Pista de tenis', 'Tratamientos faciales', 'Terraza', 'Eventos deportivos en directo (emisión)', 'WiFi gratis', 'Campo de golf (a menos de 3 km)', 'Toallas', 'Bidet', 'Servicio de limpieza diario', 'Cámaras de seguridad en las zonas comunitarias', 'Vistas al jardín', 'Envoltura corporal', 'Servicio de despertador', 'Juegos de mesa / puzles', 'Escritorio', 'Fax / fotocopiadora', 'Baño de vapor', 'Bañera', 'Radio', 'Sauna', 'Toallas de playa/piscina', 'Spa y centro de bienestar', 'Entretenimiento nocturno']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>Este complejo termal de tipo todo incluido tiene piscinas termales cubiertas y al aire libre y un spa con sauna y servicio de masajes. También cuenta con un jardín y una terraza. Está a 80 km de Salto.
 Las habitaciones del Arapey Thermal Resort &amp; Spa ofrecen vistas al jardín. Disponen de TV de plasma y una zona de estar amplia con ventanas grandes.
@@ -1526,48 +1126,48 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Gran Hotel Fray Bentos</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>US$85</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>8,1</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Muy bien</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>360</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://cf.bstatic.com/xdata/images/hotel/square600/129625030.webp?k=741167dabacedd859017c5bb6b910633dba8e960391b762f8da3b0619d12867a&amp;o=</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/gran-fray-bentos.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=22&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=31582001_89161242_0_1_0&amp;highlighted_blocks=31582001_89161242_0_1_0&amp;matching_block_id=31582001_89161242_0_1_0&amp;sr_pri_blocks=31582001_89161242_0_1_0__8505&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>['Piscina al aire libre', 'WiFi gratis', 'Gimnasio', 'Habitaciones familiares', 'Desayuno', 'Piscina al aire libre', 'WiFi gratis', 'Gimnasio', 'Habitaciones familiares', 'Desayuno', 'Papel higiénico', 'Toallas', 'Bidet', 'Bañera o ducha', 'Baño privado', 'Secador de pelo', 'Ducha', 'Armario', 'Reloj despertador', 'Mobiliario exterior', 'Jardín', 'Enchufe cerca de la cama', 'Galerías de arte temporales', 'Billar', 'Zona de juegos para niños', 'Sala de juegos', 'Escritorio', 'TV de pantalla plana', 'Canales por cable', 'Teléfono', 'TV', 'Minibar', 'Zona TV / salón de uso compartido', 'Guardaequipaje', 'Servicio de despertador', 'Información turística', 'Servicio de lavandería', 'Servicio de despertador / alarma', 'Recepción 24 horas', 'Salas de reuniones / banquetes', 'Zona de juegos interior', 'Extintores', 'Cámaras de seguridad en las zonas comunitarias', 'Detectores de humo', 'Llave de acceso', 'Caja fuerte', 'Aire acondicionado', 'Suelo de moqueta', 'Habitaciones familiares', 'Plancha para ropa', 'Acceso a pisos superiores solo mediante escaleras', 'De temporada', 'Zona poco profunda', 'Tumbonas/sillas de playa', 'Gimnasio', 'Sombrillas', 'Tumbonas/sillas de playa', 'Gimnasio', 'Sauna', 'Español']</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/gran-fray-bentos.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=14&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=31582001_89161242_0_1_0&amp;highlighted_blocks=31582001_89161242_0_1_0&amp;matching_block_id=31582001_89161242_0_1_0&amp;sr_pri_blocks=31582001_89161242_0_1_0__8505&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['Recepción 24 horas', 'Teléfono', 'Secador de pelo', 'Enchufe cerca de la cama', 'Sala de juegos', 'Canales por cable', 'Salas de reuniones / banquetes', 'Habitaciones familiares', 'Desayuno', 'Información turística', 'Ducha', 'Jardín', 'Mobiliario exterior', 'Gimnasio', 'Guardaequipaje', 'Zona de juegos interior', 'Bañera o ducha', 'Zona de juegos para niños', 'Extintores', 'Baño privado', 'Armario', 'Sombrillas', 'Plancha para ropa', 'TV de pantalla plana', 'Piscina al aire libre', 'Papel higiénico', 'WiFi gratis', 'Toallas', 'Bidet', 'Galerías de arte temporales', 'Cámaras de seguridad en las zonas comunitarias', 'Billar', 'Suelo de moqueta', 'De temporada', 'Español', 'Servicio de despertador', 'Llave de acceso', 'Acceso a pisos superiores solo mediante escaleras', 'Caja fuerte', 'Escritorio', 'TV', 'Detectores de humo', 'Zona TV / salón de uso compartido', 'Servicio de lavandería', 'Tumbonas/sillas de playa', 'Sauna', 'Servicio de despertador / alarma', 'Aire acondicionado', 'Zona poco profunda', 'Reloj despertador', 'Minibar']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>El Gran Hotel Fray Bentos ofrece piscina y centro de fitness frente al paseo marítimo. Dispone de conexión Wi-Fi gratuita y de restaurante a 8 km de la playa de Las Cañas.
 Las habitaciones del Hotel Fray Bentos cuentan con TV por cable, escritorio y conexión a internet por cable. Algunas tienen balcón y terraza privados con vistas a la costa.
@@ -1577,96 +1177,96 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Hotel Crown</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>US$71</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>8,4</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Muy bien</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>471</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://cf.bstatic.com/xdata/images/hotel/square600/150058597.webp?k=6e968e942a7bf6e67869345739d8b78cc809a6d456fc13d3624861a246acf76e&amp;o=</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/crown.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=23&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=367074302_338903187_1_1_0&amp;highlighted_blocks=367074302_338903187_1_1_0&amp;matching_block_id=367074302_338903187_1_1_0&amp;sr_pri_blocks=367074302_338903187_1_1_0__7140&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>['Parking gratis', 'Traslado aeropuerto', 'WiFi gratis', 'Servicio de habitaciones', 'Habitaciones sin humo', 'Habitaciones familiares', 'Muy buen desayuno', 'Parking gratis', 'Traslado aeropuerto', 'WiFi gratis', 'Servicio de habitaciones', 'Habitaciones sin humo', 'Habitaciones familiares', 'Muy buen desayuno', 'Papel higiénico', 'Toallas', 'Bidet', 'Bañera o ducha', 'Baño privado', 'WC', 'Artículos de aseo gratis', 'Ducha', 'Ropa de cama', 'Armario', 'Mobiliario exterior', 'Terraza / solárium', 'Terraza', 'Enchufe cerca de la cama', 'Perchero', 'TV de pantalla plana', 'Canales por cable', 'Teléfono', 'TV', 'Cafetería en el alojamiento', 'Fruta', 'Menú para niños', 'Snack-bar', 'Minibar', 'Parking en la calle', 'Proporciona factura', 'Guardaequipaje', 'Información turística', 'Recepción 24 horas', 'Juegos de mesa / puzles', 'Servicio de limpieza diario', 'Plancha para pantalones', 'Servicio de planchado', 'Servicio de lavandería', 'Fax / fotocopiadora', 'Centro de negocios', 'Salas de reuniones / banquetes', 'Extintores', 'Cámaras de seguridad fuera del alojamiento', 'Cámaras de seguridad en las zonas comunitarias', 'Detectores de humo', 'Llave de acceso', 'Zona TV / salón de uso compartido', 'Zona de fumadores', 'Aire acondicionado', 'Prohibido fumar en todo el alojamiento', 'Servicio de despertador', 'Calefacción', 'Habitaciones familiares', 'Traslado aeropuerto', 'Habitaciones sin humo', 'Servicio de habitaciones', 'Acceso a pisos superiores solo mediante escaleras', 'Español', 'Portugués']</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/crown.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=15&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=367074302_338903187_1_1_0&amp;highlighted_blocks=367074302_338903187_1_1_0&amp;matching_block_id=367074302_338903187_1_1_0&amp;sr_pri_blocks=367074302_338903187_1_1_0__7140&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['Recepción 24 horas', 'Cámaras de seguridad fuera del alojamiento', 'Teléfono', 'Prohibido fumar en todo el alojamiento', 'Canales por cable', 'Enchufe cerca de la cama', 'Calefacción', 'Salas de reuniones / banquetes', 'WC', 'Habitaciones familiares', 'Información turística', 'Cafetería en el alojamiento', 'Ducha', 'Menú para niños', 'Mobiliario exterior', 'Guardaequipaje', 'Ropa de cama', 'Perchero', 'Bañera o ducha', 'Traslado aeropuerto', 'Proporciona factura', 'Extintores', 'Baño privado', 'Armario', 'Fruta', 'Portugués', 'Muy buen desayuno', 'TV de pantalla plana', 'Habitaciones sin humo', 'Terraza', 'Papel higiénico', 'Plancha para pantalones', 'Centro de negocios', 'WiFi gratis', 'Toallas', 'Bidet', 'Servicio de limpieza diario', 'Cámaras de seguridad en las zonas comunitarias', 'Zona de fumadores', 'Español', 'Llave de acceso', 'Servicio de despertador', 'Parking en la calle', 'Acceso a pisos superiores solo mediante escaleras', 'Minibar', 'Juegos de mesa / puzles', 'TV', 'Terraza / solárium', 'Detectores de humo', 'Fax / fotocopiadora', 'Servicio de planchado', 'Zona TV / salón de uso compartido', 'Servicio de lavandería', 'Artículos de aseo gratis', 'Snack-bar', 'Parking gratis', 'Aire acondicionado', 'Servicio de habitaciones']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>Hotel Crown está en Melo y ofrece terraza. Este hotel de 3 estrellas ofrece salón de uso común y habitaciones con aire acondicionado, wifi gratis y baño privado. El alojamiento dispone de servicio de habitaciones, recepción 24 horas y servicio de organización de tours.
 En el hotel, las habitaciones disponen de armario y TV de pantalla plana, y algunas también ofrecen balcón. En Hotel Crown, todas las habitaciones incluyen ropa de cama y toallas.</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Hosteria Fortin de San Miguel</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>US$65</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>8,1</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Muy bien</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>299</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://cf.bstatic.com/xdata/images/hotel/square600/285182390.webp?k=c6ac0824f1c9c7b7b002eb6eeed49e929955120eea67ea074294131cb6741218&amp;o=</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/hosteria-fortin-de-san-miguel.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=24&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=151898701_201537153_1_1_0&amp;highlighted_blocks=151898701_201537153_1_1_0&amp;matching_block_id=151898701_201537153_1_1_0&amp;sr_pri_blocks=151898701_201537153_1_1_0__6500&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>['Piscina al aire libre', 'Parking gratis', 'WiFi gratis', 'Habitaciones familiares', 'Servicio de habitaciones', 'Restaurante', 'Habitaciones sin humo', 'Bar', 'Buen desayuno', 'Piscina al aire libre', 'Parking gratis', 'WiFi gratis', 'Habitaciones familiares', 'Servicio de habitaciones', 'Restaurante', 'Habitaciones sin humo', 'Bar', 'Buen desayuno', 'Papel higiénico', 'Toallas', 'Bidet', 'Bañera o ducha', 'Baño privado', 'WC', 'Artículos de aseo gratis', 'Secador de pelo', 'Ducha', 'Ropa de cama', 'Armario', 'Vistas a un patio interior', 'Vistas a la montaña', 'Vistas a la piscina', 'Vistas al jardín', 'Vistas', 'Zona de pícnic', 'Mobiliario exterior', 'Zona de comedor exterior', 'Barbacoa', 'Patio', 'Jardín', 'Enchufe cerca de la cama', 'Perchero', 'Equitación', 'Senderismo', 'Escritorio', 'TV de pantalla plana', 'Canales por cable', 'Radio', 'TV', 'Cafetería en el alojamiento', 'Fruta', 'Vino / champán', 'Menú para niños', 'Menús para dietas especiales (bajo petición)', 'Snack-bar', 'Desayuno en la habitación', 'Bar', 'Restaurante', 'Proporciona factura', 'Recepción 24 horas', 'Juegos de mesa / puzles', 'Juegos de mesa / puzles', 'Servicio de limpieza diario', 'Servicio de planchado', 'Servicio de lavandería', 'Fax / fotocopiadora', 'Salas de reuniones / banquetes', 'Extintores', 'Llave de acceso', 'Seguridad 24 horas', 'Caja fuerte', 'Zona de fumadores', 'Aire acondicionado', 'Mosquitera', 'Suelo de baldosa / mármol', 'Calefacción', 'Entrada privada', 'Almuerzos para llevar', 'Ventilador', 'Habitaciones familiares', 'Habitaciones sin humo', 'Servicio de habitaciones', 'Abierta todo el año', 'Para todas las edades', 'Piscina con vistas', 'Piscina pequeña', 'Zona poco profunda', 'Toallas de playa/piscina', 'Tumbonas/sillas de playa', 'Servicios de belleza', 'Tumbonas/sillas de playa', 'Baños públicos', 'Masajes', 'Español', 'Portugués']</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/hosteria-fortin-de-san-miguel.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=16&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=151898701_201537153_1_1_0&amp;highlighted_blocks=151898701_201537153_1_1_0&amp;matching_block_id=151898701_201537153_1_1_0&amp;sr_pri_blocks=151898701_201537153_1_1_0__6500&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['Equitación', 'Jardín', 'Menú para niños', 'Suelo de baldosa / mármol', 'Baños públicos', 'Menús para dietas especiales (bajo petición)', 'Proporciona factura', 'Zona de pícnic', 'Entrada privada', 'Portugués', 'Habitaciones sin humo', 'Zona de fumadores', 'Para todas las edades', 'Barbacoa', 'Tumbonas/sillas de playa', 'Snack-bar', 'Seguridad 24 horas', 'Cafetería en el alojamiento', 'Parking gratis', 'Secador de pelo', 'Calefacción', 'Salas de reuniones / banquetes', 'Vino / champán', 'Zona de comedor exterior', 'Extintores', 'Vistas', 'Fruta', 'Restaurante', 'Mosquitera', 'TV de pantalla plana', 'Español', 'Desayuno en la habitación', 'Ventilador', 'Caja fuerte', 'Masajes', 'Servicio de planchado', 'Servicio de lavandería', 'Patio', 'Aire acondicionado', 'Zona poco profunda', 'Servicio de habitaciones', 'Habitaciones familiares', 'Buen desayuno', 'Abierta todo el año', 'Ducha', 'Bar', 'Ropa de cama', 'Bañera o ducha', 'Senderismo', 'Baño privado', 'Vistas a un patio interior', 'Piscina con vistas', 'Piscina al aire libre', 'Papel higiénico', 'Llave de acceso', 'TV', 'Servicios de belleza', 'Artículos de aseo gratis', 'Recepción 24 horas', 'Canales por cable', 'Enchufe cerca de la cama', 'WC', 'Vistas a la piscina', 'Mobiliario exterior', 'Perchero', 'Armario', 'Piscina pequeña', 'WiFi gratis', 'Toallas', 'Bidet', 'Servicio de limpieza diario', 'Vistas al jardín', 'Almuerzos para llevar', 'Juegos de mesa / puzles', 'Escritorio', 'Vistas a la montaña', 'Fax / fotocopiadora', 'Radio', 'Toallas de playa/piscina']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>Hosteria Fortin de San Miguel se encuentra en Chuy y dispone de jardín, restaurante, bar y wifi gratis. El alojamiento ofrece servicio de habitaciones y recepción 24 horas.
 En la posada u hostería, todas las habitaciones disponen de aire acondicionado, escritorio, patio con vistas a la montaña, baño privado, TV de pantalla plana, ropa de cama y toallas. Todas las unidades disponen de caja fuerte.
@@ -1674,48 +1274,48 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Rivera Casino &amp; Resort</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>US$83</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>US$109</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>8,7</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Fabuloso</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1.374</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://cf.bstatic.com/xdata/images/hotel/square600/283758088.webp?k=f72e841dfe7c50a673daf464a13dd43245d8652d2687310217468000293b9c37&amp;o=</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/uy/rivera-casino-amp-resort-rivera.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALVv6qtBsACAdICJGI3YTllN2FhLTdkMzUtNDFjNy05ZDY2LTUzM2U5NTZkMzFlMtgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=25&amp;sr_order=popularity&amp;srpvid=8243722afcd6025e&amp;srepoch=1705680863&amp;all_sr_blocks=100703705_349393041_1_1_0&amp;highlighted_blocks=100703705_349393041_1_1_0&amp;matching_block_id=100703705_349393041_1_1_0&amp;sr_pri_blocks=100703705_349393041_1_1_0__8300&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>['2 piscinas', 'Parking gratis', 'WiFi gratis', 'Spa y centro de bienestar', 'Gimnasio', 'Adaptado personas de movilidad reducida', 'Servicio de habitaciones', 'Restaurante', 'Bar', 'Muy buen desayuno', '2 piscinas', 'Parking gratis', 'WiFi gratis', 'Spa y centro de bienestar', 'Gimnasio', 'Adaptado personas de movilidad reducida', 'Servicio de habitaciones', 'Restaurante', 'Bar', 'Muy buen desayuno', 'Papel higiénico', 'Toallas', 'Bañera o ducha', 'Baño privado', 'WC', 'Artículos de aseo gratis', 'Secador de pelo', 'Ducha', 'Ropa de cama', 'Armario', 'Terraza / solárium', 'Perchero', 'Música / espectáculos en directo', 'Happy hour', 'Casino', 'Escritorio', 'TV de pantalla plana', 'Canales por cable', 'Teléfono', 'TV', 'Cafetería en el alojamiento', 'Fruta', 'Vino / champán', 'Buffet para niños', 'Menú para niños', 'Menús para dietas especiales (bajo petición)', 'Bar', 'Restaurante', 'Parking en un garaje', 'Taquillas', 'Servicio de conserjería', 'Guardaequipaje', 'Información turística', 'Registro de entrada y salida exprés', 'Recepción 24 horas', 'Servicio de limpieza diario', 'Plancha para pantalones', 'Servicio de planchado', 'Servicio de lavandería', 'Fax / fotocopiadora', 'Salas de reuniones / banquetes', 'Extintores', 'Cámaras de seguridad fuera del alojamiento', 'Cámaras de seguridad en las zonas comunitarias', 'Detectores de humo', 'Alarma de seguridad', 'Tarjeta de acceso', 'Llave de acceso', 'Seguridad 24 horas', 'Caja fuerte', 'Servicio de entrega de comestibles', 'Aire acondicionado', 'Prohibido fumar en todo el alojamiento', 'Calefacción', 'Ascensor', 'Habitaciones familiares', 'Adaptado personas de movilidad reducida', 'Habitaciones sin humo', 'Servicio de habitaciones', 'Apoyo visual: braille', 'WC elevado', 'WC con barras de apoyo', 'Adaptado para sillas de ruedas', 'Abierta todo el año', 'Para todas las edades', 'Piscina climatizada', 'Piscina pequeña', 'Zona poco profunda', 'Toallas de playa/piscina', 'De temporada', 'Para todas las edades', 'Piscina en la azotea', 'Piscina con vistas', 'Toallas de playa/piscina', 'Tumbonas/sillas de playa', 'Sombrillas', 'Taquillas en el gimnasio / spa', 'Clases de fitness', 'Gimnasio', 'Zona de spa / relajación', 'Baño de vapor', 'Instalaciones de spa', 'Sombrillas', 'Tumbonas/sillas de playa', 'Masajes', 'Spa y centro de bienestar', 'Solárium', 'Gimnasio', 'Sauna', 'Español', 'Portugués']</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/rivera-casino-amp-resort-rivera.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=17&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=100703701_349393041_1_1_0&amp;highlighted_blocks=100703701_349393041_1_1_0&amp;matching_block_id=100703701_349393041_1_1_0&amp;sr_pri_blocks=100703701_349393041_1_1_0__10900&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['Prohibido fumar en todo el alojamiento', 'Menú para niños', 'Menús para dietas especiales (bajo petición)', 'Sombrillas', 'Portugués', 'Habitaciones sin humo', 'Plancha para pantalones', 'Música / espectáculos en directo', 'Servicio de conserjería', 'Zona de spa / relajación', 'Piscina en la azotea', 'Para todas las edades', 'Tumbonas/sillas de playa', 'Seguridad 24 horas', 'Cafetería en el alojamiento', 'Parking gratis', 'Secador de pelo', 'Calefacción', 'Salas de reuniones / banquetes', 'Piscina climatizada', 'Vino / champán', 'Ascensor', 'Extintores', 'WC con barras de apoyo', 'Registro de entrada y salida exprés', 'Apoyo visual: braille', 'Fruta', 'Restaurante', 'Buffet para niños', 'TV de pantalla plana', 'Español', 'Clases de fitness', 'Caja fuerte', 'Servicio de entrega de comestibles', 'Terraza / solárium', 'Masajes', 'Parking en un garaje', 'Detectores de humo', 'Servicio de planchado', 'Adaptado personas de movilidad reducida', 'Servicio de lavandería', 'Aire acondicionado', 'Zona poco profunda', 'Servicio de habitaciones', 'Teléfono', 'Casino', 'Información turística', 'Habitaciones familiares', 'Abierta todo el año', 'Ducha', 'Gimnasio', 'Bar', 'Ropa de cama', 'Guardaequipaje', 'Bañera o ducha', 'Tarjeta de acceso', 'Adaptado para sillas de ruedas', 'Baño privado', 'Piscina con vistas', 'Muy buen desayuno', 'Papel higiénico', 'WC elevado', 'Llave de acceso', '2 piscinas', 'TV', 'Alarma de seguridad', 'Artículos de aseo gratis', 'Taquillas', 'Recepción 24 horas', 'Cámaras de seguridad fuera del alojamiento', 'Canales por cable', 'WC', 'Taquillas en el gimnasio / spa', 'Solárium', 'Happy hour', 'Perchero', 'Armario', 'Instalaciones de spa', 'Piscina pequeña', 'WiFi gratis', 'Toallas', 'Servicio de limpieza diario', 'Cámaras de seguridad en las zonas comunitarias', 'De temporada', 'Escritorio', 'Fax / fotocopiadora', 'Baño de vapor', 'Sauna', 'Toallas de playa/piscina', 'Spa y centro de bienestar']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>El Rivera Casino &amp; Resort ofrece alojamiento de lujo con WiFi gratuita, sauna, centro de fitness y una piscina al aire libre y otra cubierta. El complejo se encuentra junto a la frontera brasileña, a solo 20 metros de la ciudad de Santana do Livramento.
 Las habitaciones del Rivera Casino &amp; Resort presentan una decoración moderna y elegante y cuentan con TV de pantalla plana con canales por cable, minibar, aire acondicionado y Además, incluyen baño con secador de pelo y artículos de aseo gratuitos. Algunas habitaciones incluyen balcón con vistas a la ciudad.
@@ -1726,6 +1326,402 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Casa Buganvilla</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>US$60</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>9,9</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Excepcional</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/508179103.webp?k=8e9e2ef60b1ad185b8f3f81062863e098e9f9158b43056ebc15e595b96822648&amp;o=</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/casa-buganvilla-barra-de-valizas.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=18&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=886683704_384134563_2_1_0&amp;highlighted_blocks=886683704_384134563_2_1_0&amp;matching_block_id=886683704_384134563_2_1_0&amp;sr_pri_blocks=886683704_384134563_2_1_0__6000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Cámaras de seguridad fuera del alojamiento', 'Calefacción', 'Enchufe cerca de la cama', 'Horno', 'WC', 'Información turística', 'Desayuno', 'Utensilios de cocina', 'Equitación', 'Ducha', 'Jardín', 'Mobiliario exterior', 'Guardaequipaje', 'Ropa de cama', 'Fogones', 'Bañera o ducha', 'Perchero', 'Cenas temáticas', 'Zona de comedor exterior', 'Zona de juegos interior', 'Zona de pícnic', 'Extintores', 'Chimenea exterior', 'Vistas a un patio interior', 'Registro de entrada y salida exprés', 'Entrada privada', 'Vistas', 'Tetera / cafetera', 'Mosquitera', 'Portugués', 'Habitaciones sin humo', 'Papel higiénico', 'Registro de entrada / salida privado', 'Servicio de limpieza diario', 'Tetera/cafetera en todas las habitaciones', 'Zona de comedor', 'Zona de fumadores', 'Español', 'Cafetera', 'Aseo compartido', 'Vistas al jardín', 'Cocina', 'Boles para mascotas', 'Llave de acceso', 'Servicio de despertador', 'Ventilador', 'Microondas', 'Juegos de mesa / puzles', 'Mesa de comedor', 'Tobogán de agua', 'Parking en un garaje', 'Baño compartido', 'Nevera', 'Inglés', 'Servicio de planchado', 'Barbacoa', 'Tendedero', 'Utensilios de planchado', 'Cocina compartida', 'Servicio de lavandería', 'Patio', 'Parking gratis', 'Zona de estar']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Casa Buganvilla está a 8 min a pie de Playa Barra de Valizas y ofrece alojamiento conjardín, zona de barbacoa y cocina compartida.
+Todas las unidades están equipadas con patio con vistas al jardín, cocina con nevera y horno, y baño compartido con ducha. También hay microondas, fogones y cafetera.
+En el bed and breakfast se puede disfrutar de un desayuno continental.
+El aeropuerto (Aeropuerto Capitan de Corbeta Carlos A. Curbelo) está a 176 km.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Pinos de la Quebrada</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>US$100</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>9,3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fantástico</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/79551362.webp?k=f874e952604e15b01a4816faff0776dfcd94dfbd2986183909127648c84ac1bf&amp;o=</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/estancia-pinos-de-la-quebrada.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=19&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=105228506_371922386_2_1_0&amp;highlighted_blocks=105228506_371922386_2_1_0&amp;matching_block_id=105228506_371922386_2_1_0&amp;sr_pri_blocks=105228506_371922386_2_1_0__10000&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['Sala de juegos', 'Equitación', 'Jardín', 'Vino / champán', 'Tours a pie', 'Mobiliario exterior', 'Bar', 'Menús para dietas especiales (bajo petición)', 'Senderismo', 'Chimenea exterior', 'Desayuno fantástico', 'Ping pong', 'Fruta', 'Restaurante', 'Portugués', 'Piscina al aire libre', 'Habitaciones sin humo', 'De temporada', 'Español', 'Piragüismo', 'Inglés', 'Barbacoa', 'Zona TV / salón de uso compartido', 'Tour o clase sobre cultura local', 'Dardos', 'Tumbonas/sillas de playa', 'Toallas de playa/piscina', 'Pesca', 'Aire acondicionado']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>La Pinos de la Quebrada está situada en Treinta y Tres y cuenta con piscina al aire libre y jardín. El establecimiento dispone de conexión Wi-Fi gratuita, aparcamiento gratuito y zona de barbacoa.
+Las habitaciones de la Pinos de la Quebrada presentan un mobiliario cómodo y están equipadas con aire acondicionado y baño privado. Algunas de ellas también cuenta con zona de estar, sofá y balcón. Las toallas y la ropa de cama están incluidas.
+La Pinos de la Quebrada también alberga una zona de estar común, una biblioteca, una capilla y una sala de juegos. Se pueden practicar varias actividades en los alrededores, como equitación y senderismo.
+Este lodge se encuentra a 13 km de la Quebrada de los Cuervos, a 30 km del río Olimar y a 80 km de Yaguarón (Brasil).</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nuevo Hotel</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>US$48</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>7,1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Bien</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.631</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/296250013.webp?k=a2ed9ce210d3158fd557f0b529464dd1aab48c22d78b832ad66232cb739690ae&amp;o=</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/nuevo.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=20&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=305790813_326453123_1_1_0&amp;highlighted_blocks=305790813_326453123_1_1_0&amp;matching_block_id=305790813_326453123_1_1_0&amp;sr_pri_blocks=305790813_326453123_1_1_0__4750&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['Recepción 24 horas', 'Parque acuático', 'Teléfono', 'Canales por cable', 'Sala de juegos', 'Salas de reuniones / banquetes', 'WC', 'Habitaciones familiares', 'Ducha', 'Menú para niños', 'Ascensor', 'Guardaequipaje', 'Servicio de aparcacoches', 'Perchero', 'Ropa de cama', 'Club infantil', 'Bañera o ducha', 'Acceso a pisos superiores en ascensor', 'Parking privado', 'Baño privado', 'Armario', 'Restaurante', 'Portugués', 'Muy buen desayuno', 'TV de pantalla plana', 'Habitaciones sin humo', 'Papel higiénico', 'WiFi gratis', 'Toallas', 'Servicio de limpieza diario', 'Español', 'Servicio de despertador', 'Minibar', 'Suelo de madera o parquet', 'TV', 'Servicio de entrega de comestibles', 'Servicio de planchado', 'Servicio de lavandería', 'Artículos de aseo gratis', 'Aire acondicionado', 'Servicio de habitaciones']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Nuevo Hotel es un alojamiento de 3 estrellas que está en Rivera. Este alojamiento ofrece restaurante, club infantil y servicio de habitaciones, además de wifi gratisen todo el alojamiento. Hay parking privado en el propio alojamiento.
+En el hotel, las habitaciones cuentan con armario, TV de pantalla plana, baño privado, ropa de cama y toallas. Las unidades cuentan con minibar.
+El personal de la recepción 24 horas habla español y portugués, y siempre está dispuesto a echar una mano.
+Estadio Atilio Paiva Olivera está a 1,7 km del alojamiento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Casa Agni</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>US$26</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>8,4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/457956479.webp?k=ac9c218667ab60cdde0bb8158e96e9a0bf25dc7ed336329c9f7297a8293c764b&amp;o=</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/casa-armonia.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=21&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=962422403_368842652_2_0_0&amp;highlighted_blocks=962422403_368842652_2_0_0&amp;matching_block_id=962422403_368842652_2_0_0&amp;sr_pri_blocks=962422403_368842652_2_0_0__2600&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['Prohibido fumar en todo el alojamiento', 'Calefacción', 'Masaje de cabeza', 'Paquetes de spa / bienestar', 'Clases de yoga', 'Masaje en pareja', 'Personal de animación', 'Masaje de cuello', 'Terraza', 'Masaje corporal completo', 'Música / espectáculos en directo', 'WiFi gratis', 'Galerías de arte temporales', 'Español', 'Masaje de espalda', 'Masaje de pies', 'Clases de cocina', 'Juegos de mesa / puzles', 'Terraza / solárium', 'Masajes', 'Baño compartido', 'Inglés', 'Servicio de lavandería', 'Masaje de manos']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Casa Agni ofrece alojamiento en Treinta y Tres y cuenta con terraza y wifi gratis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Gran Hotel Paysandú</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>US$68</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>8,4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/38190322.webp?k=badffded2ead11289fc2762aeae0aa7678405c7e0e83fe044f5167a54bf35d97&amp;o=</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/gran-paysandao.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=22&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=39903402_200160379_1_1_0&amp;highlighted_blocks=39903402_200160379_1_1_0&amp;matching_block_id=39903402_200160379_1_1_0&amp;sr_pri_blocks=39903402_200160379_1_1_0__6823&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['Recepción 24 horas', 'Cámaras de seguridad fuera del alojamiento', 'Teléfono', 'Calefacción', 'Canales por cable', 'Salas de reuniones / banquetes', 'WC', 'Habitaciones familiares', 'Información turística', 'Ascensor', 'Gimnasio', 'Guardaequipaje', 'Bañera o ducha', 'Alquiler de coches', 'Parking privado', 'Proporciona factura', 'Extintores', 'Registro de entrada y salida exprés', 'TV de pantalla plana', 'Muy buen desayuno', 'Habitaciones sin humo', 'Centro de negocios', 'WiFi gratis', 'Bidet', 'Servicio de limpieza diario', 'Cámaras de seguridad en las zonas comunitarias', 'Español', 'Desayuno en la habitación', 'Minibar', 'Caja fuerte', 'Escritorio', 'TV', 'Masajes', 'Parking en un garaje', 'Inglés', 'Alarma de seguridad', 'Detectores de humo', 'Fax / fotocopiadora', 'Servicio de planchado', 'Adaptado personas de movilidad reducida', 'Zona TV / salón de uso compartido', 'Servicio de lavandería', 'Snack-bar', 'Aire acondicionado', 'Spa y centro de bienestar', 'Secador de pelo', 'Servicio de habitaciones']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>El Gran Hotel Paysandú se encuentra en Paysandú y ofrece terraza, centro de negocios, WiFi gratuita y aparcamiento de pago sujeto a disponibilidad. La plaza de la Constitución está a 300 metros.
+Las habitaciones del Gran Hotel Paysandú disponen de TV LCD por cable, minibar y caja fuerte. Hay servicio de habitaciones.
+La recepción permanece abierta las 24 horas y proporciona servicio de lavandería, de alquiler de coches y de información turística. También se ofrece un servicio de masajes y aparcamiento de pago sujeto a disponibilidad.
+El Gran Hotel Paysandú está a 45 minutos en coche de las aguas termales de Guaviyú y a 15 minutos en coche del aeropuerto Tideo Larre Borges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mercedes Rambla Hotel</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>US$74</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>8,5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Muy bien</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/209885344.webp?k=a8d666ff5a31cc0506941523250340e18dbcb041d9583556bcddde232595eefa&amp;o=</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/mercedes-rambla.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=23&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=538074401_191474757_0_1_0&amp;highlighted_blocks=538074401_191474757_0_1_0&amp;matching_block_id=538074401_191474757_0_1_0&amp;sr_pri_blocks=538074401_191474757_0_1_0__7400&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['Recepción 24 horas', 'Cámaras de seguridad fuera del alojamiento', 'Prohibido fumar en todo el alojamiento', 'Calefacción', 'Salas de reuniones / banquetes', 'Habitaciones familiares', 'Alquiler de bicicletas', 'Playa', 'Información turística', 'Situado frente a la playa', 'Jardín', 'Tours a pie', 'Mobiliario exterior', 'Tarjeta de acceso', 'Senderismo', 'Extintores', 'Baño privado', 'Armario', 'Pesca', 'Sombrillas', 'Portugués', 'Muy buen desayuno', 'Piscina al aire libre', 'Habitaciones sin humo', 'Terraza', 'Papel higiénico', 'TV de pantalla plana', 'Centro de negocios', 'WiFi gratis', 'Galerías de arte temporales', 'Cámaras de seguridad en las zonas comunitarias', 'Zona de fumadores', 'Suelo de moqueta', 'Español', 'Piragüismo', 'Inglés', 'Detectores de humo', 'Fax / fotocopiadora', 'Zona TV / salón de uso compartido', 'Tour o clase sobre cultura local', 'Seguridad 24 horas', 'Parking gratis', 'Aire acondicionado', 'Tours en bici', 'Servicio de habitaciones']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Mercedes Rambla Hotel ofrece alojamiento de 3 estrellas en Mercedes, frente a la playa, y dispone de bicicletas gratis, jardín y salón de uso común. Este alojamiento, que cuenta con servicio de habitaciones, también ofrece terraza. Hay piscina al aire libre, wifi gratis y parking privado gratis.
+En el hotel, todas las habitaciones cuentan con armario y TV de pantalla plana. En Mercedes Rambla Hotel, todas las habitaciones tienen aire acondicionado y baño privado.
+El personal de recepción habla inglés, español y portugués, y está dispuesto a ayudar en cualquier momento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Casagrande Hotel &amp; Beach Club</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>US$300</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>9,3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Fantástico</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/516109395.webp?k=c00ebdd6e1f67d60309b0a34605935a17bec0faa1581d802e1bccd5bdf7040b3&amp;o=</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/casa-grande-jose-ignacio.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=24&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=789411701_338613949_2_1_0&amp;highlighted_blocks=789411701_338613949_2_1_0&amp;matching_block_id=789411701_338613949_2_1_0&amp;sr_pri_blocks=789411701_338613949_2_1_0__30000&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['Prohibido fumar en todo el alojamiento', 'Equitación', 'Playa', 'Jardín', 'Menú para niños', 'Alquiler de coches', 'Proporciona factura', 'Sombrillas', 'Portugués', 'Supermercado pequeño en el alojamiento', 'Habitaciones sin humo', 'Servicio de conserjería', 'Zona de fumadores', 'Servicio de traslado', 'Para todas las edades', 'Barbacoa', 'Tumbonas/sillas de playa', 'Snack-bar', 'Seguridad 24 horas', 'Cafetería en el alojamiento', 'Pesca', 'Parking gratis', 'Zona de estar', 'Secador de pelo', 'Canales vía satélite', 'Calefacción', 'Salas de reuniones / banquetes', 'Vino / champán', 'Ascensor', 'Extintores', 'Desayuno fantástico', 'Restaurante', 'TV de pantalla plana', 'Español', 'Cocina', 'Boles para mascotas', 'Caja fuerte', 'Bar en la piscina', 'Terraza / solárium', 'Parking en un garaje', 'Detectores de humo', 'Utensilios de planchado', 'Servicio de lavandería', 'Aire acondicionado', 'Zona poco profunda', 'Servicio de habitaciones', 'Teléfono', 'Habitaciones familiares', 'Utensilios de cocina', 'Windsurf', 'Ducha', 'Bar', 'Guardaequipaje', 'Ropa de cama', 'Fogones', 'Traslado aeropuerto', 'Tarjeta de acceso', 'Baño privado', 'Piscina al aire libre', 'Papel higiénico', 'Piragüismo', 'Microondas', 'TV', 'Inglés', 'Alarma de seguridad', 'Servicio de limpieza en seco', 'Artículos de aseo gratis', 'Recepción 24 horas', 'Enchufe cerca de la cama', 'Alquiler de bicicletas', 'Solárium', 'Mobiliario exterior', 'Acceso a pisos superiores en ascensor', 'Hervidor eléctrico', 'Armario', 'Ciclismo', 'Plancha para ropa', 'Terraza', 'WiFi gratis', 'Toallas', 'Bidet', 'Servicio de limpieza diario', 'Cámaras de seguridad en las zonas comunitarias', 'De temporada', 'Servicio de despertador', 'Escritorio', 'Toallas de playa/piscina']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Casagrande Hotel &amp; Beach Club se encuentra en José Ignacio, a 5 min a pie de Playa Mansa, y ofrece alojamiento con piscina de temporada al aire libre, parking privado gratis, jardín y terraza. El alojamiento tiene un bar y un restaurante que sirve cocina internacional. El alojamiento dispone de recepción 24 horas, traslado para ir o volver del aeropuerto, servicio de habitaciones y wifi gratis en todo el alojamiento.
+Las habitaciones en el hotel están equipadas con aire acondicionado, zona de estar, TV de pantalla plana con canales vía satélite, caja fuerte y baño privado con bidet, artículos de aseo gratuitos y secador de pelo. Cada habitación incluye hervidor, y algunas también ofrecen zona de cocina con nevera, horno y minibar. En Casagrande Hotel &amp; Beach Club, cada habitación dispone de ropa de cama y toallas.
+En el alojamiento se sirve todos los días un desayuno buffet.
+En este hotel hay alquiler de bicicletas y alquiler de coches, y la zona es ideal para practicar ciclismo.
+Playa Brava está a 14 min a pie del alojamiento, y Estación de autobús de Punta del Este está a 33 km. El aeropuerto más cercano (Aeropuerto Capitan de Corbeta Carlos A. Curbelo) está a 48 km del alojamiento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HOTEL DEL NORTE</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>US$53</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>7,8</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Bien</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://cf.bstatic.com/xdata/images/hotel/square600/295977373.webp?k=1527a566ae35e5a966dc2052d0fd4b4eb19d3bf31aae4338e3c38933ad4ca523&amp;o=</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/uy/del-norte.es.html?aid=304142&amp;label=gen173nr-1FCAQoggI46wdIClgEaO0BiAEBmAEKuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALY1KqtBsACAdICJDMzMzQ4ZGZkLTg1NjEtNGQ1MS1iOTk1LThhZDhhNDA0MTFmM9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;checkin=2024-01-23&amp;checkout=2024-01-24&amp;group_adults=1&amp;req_adults=1&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=25&amp;sr_order=popularity&amp;srpvid=59cb776c9dba00cd&amp;srepoch=1705683552&amp;all_sr_blocks=725554701_310462845_1_1_0&amp;highlighted_blocks=725554701_310462845_1_1_0&amp;matching_block_id=725554701_310462845_1_1_0&amp;sr_pri_blocks=725554701_310462845_1_1_0__5300&amp;from_sustainable_property_sr=1&amp;from=searchresults#hotelTmpl</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['Recepción 24 horas', 'Cámaras de seguridad fuera del alojamiento', 'Teléfono', 'Prohibido fumar en todo el alojamiento', 'Canales por cable', 'Enchufe cerca de la cama', 'Calefacción', 'WC', 'Información turística', 'Buen desayuno', 'Abierta todo el año', 'Ducha', 'Jardín', 'Mobiliario exterior', 'Guardaequipaje', 'Perchero', 'Ropa de cama', 'Proporciona factura', 'Extintores', 'Baño privado', 'Portugués', 'TV de pantalla plana', 'Piscina al aire libre', 'Habitaciones sin humo', 'Terraza', 'Papel higiénico', 'Plancha para pantalones', 'WiFi gratis', 'Servicio de conserjería', 'Toallas', 'Bidet', 'Servicio de limpieza diario', 'Cámaras de seguridad en las zonas comunitarias', 'Suelo de moqueta', 'Español', 'Desayuno en la habitación', 'Servicio de despertador', 'Acceso a pisos superiores solo mediante escaleras', 'TV', 'Cambio de moneda', 'Detectores de humo', 'Servicio de limpieza en seco', 'Servicio de planchado', 'Fax / fotocopiadora', 'Zona TV / salón de uso compartido', 'Servicio de lavandería', 'Tumbonas/sillas de playa', 'Artículos de aseo gratis', 'Toallas / sábanas (por un suplemento)', 'Toallas de playa/piscina', 'Aire acondicionado', 'Zona poco profunda', 'Secador de pelo', 'Minibar', 'Solo para adultos']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>HOTEL DEL NORTE dispone de jardín, salón de uso común y terraza en Artigas. Este hotel de 2 estrellas ofrece piscina al aire libre y tiene habitaciones con aire acondicionado, wifi gratis y baño privado. El alojamiento ofrece recepción 24 horas, servicio de conserjería y cambio de moneda.
+En el hotel, todas las habitaciones disponen de TV de pantalla plana y algunas también ofrecen vistas a la ciudad. En HOTEL DEL NORTE, cada habitación incluye ropa de cama y toallas.
+El aeropuerto más cercano (Aeropuerto internacional Ruben Berta) está a 125 km del alojamiento.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
